--- a/projects/example_project.xlsx
+++ b/projects/example_project.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="491">
   <si>
     <t>type</t>
   </si>
@@ -103,12 +103,6 @@
     <t>Sample Method</t>
   </si>
   <si>
-    <t>LHS</t>
-  </si>
-  <si>
-    <t>Sensitivity Method</t>
-  </si>
-  <si>
     <t>argument</t>
   </si>
   <si>
@@ -1474,15 +1468,6 @@
     <t>Sentivity Method</t>
   </si>
   <si>
-    <t>All Variables</t>
-  </si>
-  <si>
-    <t>Individual Variables</t>
-  </si>
-  <si>
-    <t>Place any Problem Specific entries here.  The names will be downcased and underscored automatically, so either enter them as readable or already "snake_cased"</t>
-  </si>
-  <si>
     <t>Algorithm Setup</t>
   </si>
   <si>
@@ -1498,16 +1483,22 @@
     <t>../seeds/medium_office.osm</t>
   </si>
   <si>
-    <t>Number of Worker Nodes</t>
-  </si>
-  <si>
-    <t>Worker Nodes</t>
-  </si>
-  <si>
     <t>This will be the name that is displayed on the server instance and used to identify the cluster.</t>
   </si>
   <si>
-    <t>Analysis Instance Name</t>
+    <t>Analysis Type</t>
+  </si>
+  <si>
+    <t>all_variables</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>individual_variables</t>
+  </si>
+  <si>
+    <t>Place any Problem Specific entries here.  The names will be downcased and underscored automatically, so either enter them as readable or already "snake_cased". Note the values won't be downcased or snake_cased.</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1611,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1277">
+  <cellStyleXfs count="1281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2898,8 +2889,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2956,14 +2951,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1277">
+  <cellStyles count="1281">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3602,6 +3600,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1272" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1274" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1280" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4240,6 +4240,8 @@
     <cellStyle name="Hyperlink" xfId="1271" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1273" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1279" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4552,12 +4554,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4573,16 +4575,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
@@ -4591,7 +4593,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="23" t="s">
@@ -4600,245 +4602,216 @@
     </row>
     <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="B2" s="12"/>
+        <v>453</v>
+      </c>
+      <c r="B2" s="26"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <f>INDEX(Lookups!$A$2:$C$5,MATCH($B4,Lookups!$A$2:$A$5,0),2)</f>
-        <v>2 Cores</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f>INDEX(Lookups!$A$2:$C$5,MATCH($B4,Lookups!$A$2:$A$5,0),3)</f>
-        <v>$0.410/hour</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f>INDEX(Lookups!$A$2:$C$5,MATCH($B5,Lookups!$A$2:$A$5,0),2)</f>
-        <v>2 Cores</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f>INDEX(Lookups!$A$2:$C$5,MATCH($B5,Lookups!$A$2:$A$5,0),3)</f>
-        <v>$0.410/hour</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B6" s="25">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="13" customFormat="1">
-      <c r="A8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" ht="28">
+    </row>
+    <row r="7" spans="1:5" s="13" customFormat="1">
+      <c r="A7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="42">
-      <c r="A13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="14" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>482</v>
+      <c r="B12" s="26"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A15" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B17" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="42">
-      <c r="A18" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="14" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B18" s="25">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B19" s="25">
-        <v>20</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A21" s="12" t="s">
+      <c r="E24" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="42">
-      <c r="A27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="14"/>
+      <c r="C26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4856,7 +4829,7 @@
           <x14:formula1>
             <xm:f>Lookups!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B15</xm:sqref>
+          <xm:sqref>B16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4898,7 +4871,7 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4913,21 +4886,21 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
+      <c r="Q1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>23</v>
@@ -4943,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>17</v>
@@ -4958,7 +4931,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>12</v>
@@ -5013,7 +4986,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -5038,13 +5011,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -5060,26 +5033,26 @@
     <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -5091,19 +5064,19 @@
     <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8"/>
       <c r="H8">
@@ -5123,7 +5096,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
@@ -5131,19 +5104,19 @@
     <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9"/>
       <c r="H9">
@@ -5159,19 +5132,19 @@
     <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G10"/>
       <c r="H10">
@@ -5187,19 +5160,19 @@
     <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G11"/>
       <c r="H11">
@@ -5215,19 +5188,19 @@
     <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="b">
@@ -5243,19 +5216,19 @@
     <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G13"/>
       <c r="H13">
@@ -5271,19 +5244,19 @@
     <row r="14" spans="1:22">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G14"/>
       <c r="H14">
@@ -5299,19 +5272,19 @@
     <row r="15" spans="1:22">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15"/>
       <c r="H15">
@@ -5329,53 +5302,53 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H18">
         <v>30</v>
@@ -5394,24 +5367,24 @@
         <v>5</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -5419,19 +5392,19 @@
     </row>
     <row r="20" spans="1:14" customFormat="1">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -5439,19 +5412,19 @@
     </row>
     <row r="21" spans="1:14" customFormat="1">
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -5462,13 +5435,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -5478,19 +5451,19 @@
     <row r="23" spans="1:14">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G23"/>
       <c r="H23">
@@ -5510,7 +5483,7 @@
         <v>43.166666666666664</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -5518,13 +5491,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -5534,19 +5507,19 @@
     <row r="25" spans="1:14">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G25"/>
       <c r="H25">
@@ -5566,25 +5539,25 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G26"/>
       <c r="H26">
@@ -5594,26 +5567,26 @@
     <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -5621,13 +5594,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -5637,19 +5610,19 @@
     <row r="29" spans="1:14">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G29"/>
       <c r="H29">
@@ -5669,25 +5642,25 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G30"/>
       <c r="H30">
@@ -5697,26 +5670,26 @@
     <row r="31" spans="1:14">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" t="s">
         <v>99</v>
-      </c>
-      <c r="I31" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5759,13 +5732,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -5776,19 +5749,19 @@
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -5797,19 +5770,19 @@
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="b">
@@ -5820,19 +5793,19 @@
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20">
@@ -5843,19 +5816,19 @@
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20">
@@ -5866,19 +5839,19 @@
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20">
@@ -5889,19 +5862,19 @@
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="b">
@@ -5912,19 +5885,19 @@
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20">
@@ -5935,19 +5908,19 @@
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20">
@@ -5958,19 +5931,19 @@
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
@@ -5983,13 +5956,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -6000,19 +5973,19 @@
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -6021,19 +5994,19 @@
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="b">
@@ -6044,19 +6017,19 @@
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20">
@@ -6067,19 +6040,19 @@
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20">
@@ -6090,19 +6063,19 @@
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20">
@@ -6113,19 +6086,19 @@
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="b">
@@ -6136,19 +6109,19 @@
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20">
@@ -6159,19 +6132,19 @@
     <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20">
@@ -6182,19 +6155,19 @@
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20">
@@ -6207,13 +6180,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -6224,19 +6197,19 @@
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="b">
@@ -6247,42 +6220,42 @@
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>124</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20">
@@ -6293,19 +6266,19 @@
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20">
@@ -6316,19 +6289,19 @@
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20">
@@ -6339,19 +6312,19 @@
     <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20" t="b">
@@ -6362,19 +6335,19 @@
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20">
@@ -6385,19 +6358,19 @@
     <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20">
@@ -6408,19 +6381,19 @@
     <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20">
@@ -6433,13 +6406,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -6450,19 +6423,19 @@
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -6471,19 +6444,19 @@
     <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20" t="b">
@@ -6494,19 +6467,19 @@
     <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20">
@@ -6517,19 +6490,19 @@
     <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20">
@@ -6540,19 +6513,19 @@
     <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20">
@@ -6563,19 +6536,19 @@
     <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="b">
@@ -6586,19 +6559,19 @@
     <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20">
@@ -6609,19 +6582,19 @@
     <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20">
@@ -6632,19 +6605,19 @@
     <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20">
@@ -6657,13 +6630,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -6674,19 +6647,19 @@
     <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -6695,19 +6668,19 @@
     <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20" t="b">
@@ -6718,19 +6691,19 @@
     <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20">
@@ -6741,19 +6714,19 @@
     <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20">
@@ -6764,19 +6737,19 @@
     <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20">
@@ -6787,19 +6760,19 @@
     <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="20" t="b">
@@ -6810,19 +6783,19 @@
     <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="20">
@@ -6833,19 +6806,19 @@
     <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="20">
@@ -6856,19 +6829,19 @@
     <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20">
@@ -6881,13 +6854,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -6898,19 +6871,19 @@
     <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -6919,19 +6892,19 @@
     <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20" t="b">
@@ -6942,19 +6915,19 @@
     <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20">
@@ -6965,19 +6938,19 @@
     <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="20">
@@ -6988,19 +6961,19 @@
     <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20">
@@ -7011,19 +6984,19 @@
     <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="20" t="b">
@@ -7034,19 +7007,19 @@
     <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20">
@@ -7057,19 +7030,19 @@
     <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20">
@@ -7080,19 +7053,19 @@
     <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="20">
@@ -7105,13 +7078,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -7122,19 +7095,19 @@
     <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
@@ -7143,44 +7116,44 @@
     <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="20" t="b">
@@ -7191,19 +7164,19 @@
     <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="20">
@@ -7214,19 +7187,19 @@
     <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="20">
@@ -7237,19 +7210,19 @@
     <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="20">
@@ -7260,19 +7233,19 @@
     <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="20" t="b">
@@ -7283,19 +7256,19 @@
     <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="20">
@@ -7306,19 +7279,19 @@
     <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20">
@@ -7329,19 +7302,19 @@
     <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20">
@@ -7354,13 +7327,13 @@
         <v>0</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -7371,19 +7344,19 @@
     <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
@@ -7392,19 +7365,19 @@
     <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="20">
@@ -7415,44 +7388,44 @@
     <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G76" s="20"/>
       <c r="H76" s="20">
@@ -7463,19 +7436,19 @@
     <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G77" s="20"/>
       <c r="H77" s="20">
@@ -7486,19 +7459,19 @@
     <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="20">
@@ -7509,19 +7482,19 @@
     <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G79" s="20"/>
       <c r="H79" s="20">
@@ -7532,19 +7505,19 @@
     <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="20">
@@ -7555,19 +7528,19 @@
     <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G81" s="20"/>
       <c r="H81" s="20">
@@ -7578,19 +7551,19 @@
     <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E82" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G82" s="20"/>
       <c r="H82" s="20" t="b">
@@ -7601,19 +7574,19 @@
     <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="20">
@@ -7624,19 +7597,19 @@
     <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="20">
@@ -7647,19 +7620,19 @@
     <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E85" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G85" s="20"/>
       <c r="H85" s="20">
@@ -7672,13 +7645,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -7689,19 +7662,19 @@
     <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E87" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="20">
@@ -7712,42 +7685,42 @@
     <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G88" s="20"/>
       <c r="H88" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G89" s="20"/>
       <c r="H89" s="20" t="b">
@@ -7758,19 +7731,19 @@
     <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E90" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G90" s="20"/>
       <c r="H90" s="20">
@@ -7781,19 +7754,19 @@
     <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E91" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G91" s="20"/>
       <c r="H91" s="20">
@@ -7804,19 +7777,19 @@
     <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G92" s="20"/>
       <c r="H92" s="20">
@@ -7827,19 +7800,19 @@
     <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="20" t="b">
@@ -7850,19 +7823,19 @@
     <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E94" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="20">
@@ -7873,19 +7846,19 @@
     <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E95" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="20">
@@ -7896,19 +7869,19 @@
     <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E96" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="20">
@@ -7921,13 +7894,13 @@
         <v>0</v>
       </c>
       <c r="B97" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D97" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>180</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -7938,26 +7911,26 @@
     <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E98" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15">
@@ -7965,13 +7938,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -7982,19 +7955,19 @@
     <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -8003,26 +7976,26 @@
     <row r="101" spans="1:9" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E101" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G101" s="20"/>
       <c r="H101" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15">
@@ -8030,13 +8003,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -8047,19 +8020,19 @@
     <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G103" s="20"/>
       <c r="H103" s="20">
@@ -8070,44 +8043,44 @@
     <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E104" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G104" s="20"/>
       <c r="H104" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I104" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E105" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="20" t="b">
@@ -8118,19 +8091,19 @@
     <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E106" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
@@ -8141,13 +8114,13 @@
         <v>0</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -8158,44 +8131,44 @@
     <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E108" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G108" s="20"/>
       <c r="H108" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I108" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E109" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="20">
@@ -8206,19 +8179,19 @@
     <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E110" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="20">
@@ -8229,19 +8202,19 @@
     <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E111" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G111" s="20"/>
       <c r="H111" s="20">
@@ -8252,19 +8225,19 @@
     <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E112" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="20">
@@ -8275,19 +8248,19 @@
     <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E113" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="20">
@@ -8298,19 +8271,19 @@
     <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E114" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="20">
@@ -8323,13 +8296,13 @@
         <v>0</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -8340,19 +8313,19 @@
     <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E116" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="20">
@@ -8363,19 +8336,19 @@
     <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E117" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="20">
@@ -8386,19 +8359,19 @@
     <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E118" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="20" t="b">
@@ -8411,13 +8384,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -8428,19 +8401,19 @@
     <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E120" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="20">
@@ -8451,19 +8424,19 @@
     <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E121" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="20">
@@ -8474,19 +8447,19 @@
     <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E122" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G122" s="20"/>
       <c r="H122" s="20">
@@ -8497,19 +8470,19 @@
     <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E123" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G123" s="20"/>
       <c r="H123" s="20">
@@ -8520,19 +8493,19 @@
     <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E124" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G124" s="20"/>
       <c r="H124" s="20" t="b">
@@ -8543,19 +8516,19 @@
     <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E125" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G125" s="20"/>
       <c r="H125" s="20" t="b">
@@ -8568,13 +8541,13 @@
         <v>0</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -8585,44 +8558,44 @@
     <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E127" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G127" s="20"/>
       <c r="H127" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I127" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E128" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G128" s="20"/>
       <c r="H128" s="20" t="b">
@@ -8633,19 +8606,19 @@
     <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E129" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F129" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="20">
@@ -8656,19 +8629,19 @@
     <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E130" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="20">
@@ -8679,19 +8652,19 @@
     <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E131" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G131" s="20"/>
       <c r="H131" s="20">
@@ -8702,19 +8675,19 @@
     <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E132" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="20" t="b">
@@ -8725,19 +8698,19 @@
     <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E133" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="20">
@@ -8748,19 +8721,19 @@
     <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E134" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G134" s="20"/>
       <c r="H134" s="20">
@@ -8771,19 +8744,19 @@
     <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E135" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F135" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G135" s="20"/>
       <c r="H135" s="20">
@@ -8796,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -8813,44 +8786,44 @@
     <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I137" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E138" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
@@ -8859,19 +8832,19 @@
     <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E139" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G139" s="20"/>
       <c r="H139" s="20">
@@ -8882,19 +8855,19 @@
     <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E140" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G140" s="20"/>
       <c r="H140" s="20">
@@ -8905,19 +8878,19 @@
     <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E141" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G141" s="20"/>
       <c r="H141" s="20">
@@ -8928,19 +8901,19 @@
     <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E142" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F142" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G142" s="20"/>
       <c r="H142" s="20">
@@ -8951,19 +8924,19 @@
     <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E143" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G143" s="20"/>
       <c r="H143" s="20" t="b">
@@ -8974,19 +8947,19 @@
     <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E144" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F144" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G144" s="20"/>
       <c r="H144" s="20">
@@ -8997,19 +8970,19 @@
     <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E145" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F145" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G145" s="20"/>
       <c r="H145" s="20">
@@ -9020,19 +8993,19 @@
     <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E146" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F146" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="20">
@@ -9043,19 +9016,19 @@
     <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E147" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F147" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G147" s="20"/>
       <c r="H147" s="20" t="b">
@@ -9066,19 +9039,19 @@
     <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E148" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F148" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G148" s="20"/>
       <c r="H148" s="20">
@@ -9089,19 +9062,19 @@
     <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E149" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F149" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="20">
@@ -9112,19 +9085,19 @@
     <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E150" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F150" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G150" s="20"/>
       <c r="H150" s="20">
@@ -9137,13 +9110,13 @@
         <v>0</v>
       </c>
       <c r="B151" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D151" s="20" t="s">
         <v>251</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>253</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
@@ -9154,19 +9127,19 @@
     <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E152" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F152" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G152" s="20"/>
       <c r="H152" s="20">
@@ -9179,13 +9152,13 @@
         <v>0</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
@@ -9196,46 +9169,46 @@
     <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E154" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F154" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G154" s="20"/>
       <c r="H154" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I154" s="20"/>
     </row>
     <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D155" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E155" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G155" s="20"/>
       <c r="H155" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I155" s="20"/>
     </row>
@@ -9244,13 +9217,13 @@
         <v>0</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
@@ -9261,44 +9234,44 @@
     <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E157" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F157" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G157" s="20"/>
       <c r="H157" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I157" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D158" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E158" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F158" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G158" s="20"/>
       <c r="H158" s="20">
@@ -9309,19 +9282,19 @@
     <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D159" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E159" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G159" s="20"/>
       <c r="H159" s="20" t="b">
@@ -9332,19 +9305,19 @@
     <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E160" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F160" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G160" s="20"/>
       <c r="H160" s="20">
@@ -9355,19 +9328,19 @@
     <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E161" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F161" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G161" s="20"/>
       <c r="H161" s="20">
@@ -9378,19 +9351,19 @@
     <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E162" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G162" s="20"/>
       <c r="H162" s="20">
@@ -9401,19 +9374,19 @@
     <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E163" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F163" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G163" s="20"/>
       <c r="H163" s="20" t="b">
@@ -9424,19 +9397,19 @@
     <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E164" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F164" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G164" s="20"/>
       <c r="H164" s="20">
@@ -9447,19 +9420,19 @@
     <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E165" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G165" s="20"/>
       <c r="H165" s="20">
@@ -9470,19 +9443,19 @@
     <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E166" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F166" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G166" s="20"/>
       <c r="H166" s="20">
@@ -9495,13 +9468,13 @@
         <v>0</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
@@ -9512,44 +9485,44 @@
     <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E168" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F168" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G168" s="20"/>
       <c r="H168" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I168" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E169" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F169" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G169" s="20"/>
       <c r="H169" s="20">
@@ -9560,19 +9533,19 @@
     <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E170" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F170" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G170" s="20"/>
       <c r="H170" s="20" t="b">
@@ -9583,19 +9556,19 @@
     <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E171" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G171" s="20"/>
       <c r="H171" s="20">
@@ -9606,19 +9579,19 @@
     <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E172" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F172" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G172" s="20"/>
       <c r="H172" s="20">
@@ -9629,19 +9602,19 @@
     <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E173" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G173" s="20"/>
       <c r="H173" s="20">
@@ -9652,19 +9625,19 @@
     <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E174" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F174" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G174" s="20"/>
       <c r="H174" s="20" t="b">
@@ -9675,19 +9648,19 @@
     <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E175" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F175" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G175" s="20"/>
       <c r="H175" s="20">
@@ -9698,19 +9671,19 @@
     <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E176" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F176" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G176" s="20"/>
       <c r="H176" s="20">
@@ -9721,19 +9694,19 @@
     <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E177" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F177" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G177" s="20"/>
       <c r="H177" s="20">
@@ -9746,13 +9719,13 @@
         <v>0</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -9763,19 +9736,19 @@
     <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E179" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F179" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G179" s="20"/>
       <c r="H179" s="20">
@@ -9786,19 +9759,19 @@
     <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E180" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F180" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G180" s="20"/>
       <c r="H180" s="20">
@@ -9809,19 +9782,19 @@
     <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E181" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F181" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G181" s="20"/>
       <c r="H181" s="20">
@@ -9832,19 +9805,19 @@
     <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E182" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F182" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G182" s="20"/>
       <c r="H182" s="20">
@@ -9857,13 +9830,13 @@
         <v>0</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
@@ -9874,19 +9847,19 @@
     <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E184" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F184" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G184" s="20"/>
       <c r="H184" s="20">
@@ -9897,19 +9870,19 @@
     <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E185" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F185" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G185" s="20"/>
       <c r="H185" s="20">
@@ -9920,19 +9893,19 @@
     <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E186" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F186" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G186" s="20"/>
       <c r="H186" s="20">
@@ -9943,19 +9916,19 @@
     <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E187" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F187" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G187" s="20"/>
       <c r="H187" s="20">
@@ -9968,13 +9941,13 @@
         <v>0</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -9985,19 +9958,19 @@
     <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E189" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F189" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G189" s="20"/>
       <c r="H189" s="20"/>
@@ -10006,19 +9979,19 @@
     <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E190" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F190" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G190" s="20"/>
       <c r="H190" s="20" t="b">
@@ -10031,13 +10004,13 @@
         <v>0</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
@@ -10048,19 +10021,19 @@
     <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E192" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F192" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G192" s="20"/>
       <c r="H192" s="20" t="b">
@@ -10071,44 +10044,44 @@
     <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E193" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F193" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G193" s="20"/>
       <c r="H193" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I193" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E194" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F194" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G194" s="20"/>
       <c r="H194" s="20"/>
@@ -10117,51 +10090,51 @@
     <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E195" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F195" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G195" s="20"/>
       <c r="H195" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I195" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E196" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F196" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G196" s="20"/>
       <c r="H196" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I196" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15">
@@ -10169,13 +10142,13 @@
         <v>0</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -10186,44 +10159,44 @@
     <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E198" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F198" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G198" s="20"/>
       <c r="H198" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I198" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E199" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F199" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G199" s="20"/>
       <c r="H199" s="20">
@@ -10234,19 +10207,19 @@
     <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E200" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F200" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G200" s="20"/>
       <c r="H200" s="20">
@@ -10257,19 +10230,19 @@
     <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E201" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F201" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G201" s="20"/>
       <c r="H201" s="20">
@@ -10280,19 +10253,19 @@
     <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E202" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F202" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G202" s="20"/>
       <c r="H202" s="20">
@@ -10303,19 +10276,19 @@
     <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E203" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F203" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G203" s="20"/>
       <c r="H203" s="20" t="b">
@@ -10326,19 +10299,19 @@
     <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D204" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E204" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F204" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G204" s="20"/>
       <c r="H204" s="20">
@@ -10349,19 +10322,19 @@
     <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E205" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F205" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G205" s="20"/>
       <c r="H205" s="20">
@@ -10372,19 +10345,19 @@
     <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E206" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F206" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G206" s="20"/>
       <c r="H206" s="20">
@@ -10397,13 +10370,13 @@
         <v>0</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
@@ -10414,44 +10387,44 @@
     <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E208" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F208" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G208" s="20"/>
       <c r="H208" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I208" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E209" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F209" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G209" s="20"/>
       <c r="H209" s="20">
@@ -10462,19 +10435,19 @@
     <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E210" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F210" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G210" s="20"/>
       <c r="H210" s="20">
@@ -10485,19 +10458,19 @@
     <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E211" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F211" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G211" s="20"/>
       <c r="H211" s="20">
@@ -10508,19 +10481,19 @@
     <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E212" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F212" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G212" s="20"/>
       <c r="H212" s="20">
@@ -10531,19 +10504,19 @@
     <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E213" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F213" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G213" s="20"/>
       <c r="H213" s="20" t="b">
@@ -10554,19 +10527,19 @@
     <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E214" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F214" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G214" s="20"/>
       <c r="H214" s="20">
@@ -10577,19 +10550,19 @@
     <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D215" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E215" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F215" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G215" s="20"/>
       <c r="H215" s="20">
@@ -10600,19 +10573,19 @@
     <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E216" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F216" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G216" s="20"/>
       <c r="H216" s="20">
@@ -10625,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -10642,19 +10615,19 @@
     <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D218" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E218" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F218" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G218" s="20"/>
       <c r="H218" s="20"/>
@@ -10663,19 +10636,19 @@
     <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E219" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F219" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G219" s="20"/>
       <c r="H219" s="20">
@@ -10686,19 +10659,19 @@
     <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E220" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F220" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G220" s="20"/>
       <c r="H220" s="20" t="b">
@@ -10709,19 +10682,19 @@
     <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E221" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F221" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G221" s="20"/>
       <c r="H221" s="20">
@@ -10732,19 +10705,19 @@
     <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D222" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E222" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F222" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G222" s="20"/>
       <c r="H222" s="20">
@@ -10755,19 +10728,19 @@
     <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E223" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F223" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G223" s="20"/>
       <c r="H223" s="20" t="b">
@@ -10778,19 +10751,19 @@
     <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D224" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E224" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F224" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G224" s="20"/>
       <c r="H224" s="20">
@@ -10801,19 +10774,19 @@
     <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D225" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E225" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F225" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G225" s="20"/>
       <c r="H225" s="20">
@@ -10824,19 +10797,19 @@
     <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D226" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E226" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F226" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G226" s="20"/>
       <c r="H226" s="20" t="b">
@@ -10847,19 +10820,19 @@
     <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D227" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E227" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F227" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G227" s="20"/>
       <c r="H227" s="20">
@@ -10870,19 +10843,19 @@
     <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D228" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E228" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F228" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G228" s="20"/>
       <c r="H228" s="20">
@@ -10893,19 +10866,19 @@
     <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D229" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E229" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F229" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G229" s="20"/>
       <c r="H229" s="20">
@@ -10916,19 +10889,19 @@
     <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D230" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E230" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F230" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G230" s="20"/>
       <c r="H230" s="20">
@@ -10939,19 +10912,19 @@
     <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E231" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F231" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G231" s="20"/>
       <c r="H231" s="20">
@@ -10962,19 +10935,19 @@
     <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D232" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E232" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F232" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G232" s="20"/>
       <c r="H232" s="20">
@@ -10985,19 +10958,19 @@
     <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D233" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E233" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F233" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G233" s="20"/>
       <c r="H233" s="20">
@@ -11010,13 +10983,13 @@
         <v>0</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -11027,19 +11000,19 @@
     <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E235" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F235" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G235" s="20"/>
       <c r="H235" s="20"/>
@@ -11048,19 +11021,19 @@
     <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D236" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E236" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F236" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G236" s="20"/>
       <c r="H236" s="20">
@@ -11071,19 +11044,19 @@
     <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E237" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F237" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G237" s="20"/>
       <c r="H237" s="20" t="b">
@@ -11094,19 +11067,19 @@
     <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E238" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F238" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G238" s="20"/>
       <c r="H238" s="20">
@@ -11117,19 +11090,19 @@
     <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E239" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F239" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G239" s="20"/>
       <c r="H239" s="20">
@@ -11140,19 +11113,19 @@
     <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E240" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F240" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G240" s="20"/>
       <c r="H240" s="20" t="b">
@@ -11163,19 +11136,19 @@
     <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E241" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F241" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G241" s="20"/>
       <c r="H241" s="20">
@@ -11186,19 +11159,19 @@
     <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E242" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F242" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G242" s="20"/>
       <c r="H242" s="20">
@@ -11209,19 +11182,19 @@
     <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E243" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F243" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G243" s="20"/>
       <c r="H243" s="20" t="b">
@@ -11232,19 +11205,19 @@
     <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E244" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F244" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G244" s="20"/>
       <c r="H244" s="20">
@@ -11255,19 +11228,19 @@
     <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E245" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F245" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G245" s="20"/>
       <c r="H245" s="20">
@@ -11278,19 +11251,19 @@
     <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E246" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F246" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G246" s="20"/>
       <c r="H246" s="20">
@@ -11301,19 +11274,19 @@
     <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D247" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E247" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F247" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G247" s="20"/>
       <c r="H247" s="20">
@@ -11324,19 +11297,19 @@
     <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D248" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E248" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F248" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G248" s="20"/>
       <c r="H248" s="20">
@@ -11347,19 +11320,19 @@
     <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E249" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F249" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G249" s="20"/>
       <c r="H249" s="20">
@@ -11370,19 +11343,19 @@
     <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E250" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F250" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G250" s="20"/>
       <c r="H250" s="20">
@@ -11395,13 +11368,13 @@
         <v>0</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -11412,44 +11385,44 @@
     <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E252" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F252" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G252" s="20"/>
       <c r="H252" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I252" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E253" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F253" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G253" s="20"/>
       <c r="H253" s="20">
@@ -11460,19 +11433,19 @@
     <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E254" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F254" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G254" s="20"/>
       <c r="H254" s="20">
@@ -11483,19 +11456,19 @@
     <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E255" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F255" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G255" s="20"/>
       <c r="H255" s="20">
@@ -11506,19 +11479,19 @@
     <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E256" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F256" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G256" s="20"/>
       <c r="H256" s="20">
@@ -11531,13 +11504,13 @@
         <v>0</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D257" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -11548,44 +11521,44 @@
     <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E258" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F258" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G258" s="20"/>
       <c r="H258" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I258" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E259" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F259" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G259" s="20"/>
       <c r="H259" s="20">
@@ -11598,13 +11571,13 @@
         <v>0</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -11617,13 +11590,13 @@
         <v>0</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -11636,13 +11609,13 @@
         <v>0</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D262" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -11653,19 +11626,19 @@
     <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E263" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F263" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G263" s="20"/>
       <c r="H263" s="20"/>
@@ -11674,19 +11647,19 @@
     <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D264" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E264" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F264" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G264" s="20"/>
       <c r="H264" s="20" t="b">
@@ -11697,19 +11670,19 @@
     <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D265" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E265" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F265" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G265" s="20"/>
       <c r="H265" s="20" t="b">
@@ -11720,19 +11693,19 @@
     <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D266" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E266" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F266" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G266" s="20"/>
       <c r="H266" s="20" t="b">
@@ -11743,19 +11716,19 @@
     <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E267" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F267" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G267" s="20"/>
       <c r="H267" s="20">
@@ -11766,19 +11739,19 @@
     <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E268" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F268" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G268" s="20"/>
       <c r="H268" s="20">
@@ -11789,19 +11762,19 @@
     <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E269" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F269" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G269" s="20"/>
       <c r="H269" s="20">
@@ -11812,19 +11785,19 @@
     <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C270" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E270" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F270" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G270" s="20"/>
       <c r="H270" s="20" t="b">
@@ -11835,19 +11808,19 @@
     <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E271" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F271" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G271" s="20"/>
       <c r="H271" s="20">
@@ -11858,19 +11831,19 @@
     <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C272" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E272" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F272" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G272" s="20"/>
       <c r="H272" s="20">
@@ -11881,19 +11854,19 @@
     <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E273" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F273" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G273" s="20"/>
       <c r="H273" s="20">
@@ -11906,13 +11879,13 @@
         <v>0</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -11923,19 +11896,19 @@
     <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E275" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F275" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G275" s="20"/>
       <c r="H275" s="20">
@@ -11948,13 +11921,13 @@
         <v>0</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -11965,44 +11938,44 @@
     <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E277" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F277" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G277" s="20"/>
       <c r="H277" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I277" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C278" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E278" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F278" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G278" s="20"/>
       <c r="H278" s="20">
@@ -12013,19 +11986,19 @@
     <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E279" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F279" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G279" s="20"/>
       <c r="H279" s="20">
@@ -12036,19 +12009,19 @@
     <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D280" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E280" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F280" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G280" s="20"/>
       <c r="H280" s="20" t="b">
@@ -12059,19 +12032,19 @@
     <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E281" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F281" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G281" s="20"/>
       <c r="H281" s="20">
@@ -12082,19 +12055,19 @@
     <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D282" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E282" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F282" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G282" s="20"/>
       <c r="H282" s="20">
@@ -12105,19 +12078,19 @@
     <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E283" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F283" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G283" s="20"/>
       <c r="H283" s="20">
@@ -12128,19 +12101,19 @@
     <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D284" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E284" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F284" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G284" s="20"/>
       <c r="H284" s="20" t="b">
@@ -12151,19 +12124,19 @@
     <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D285" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E285" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F285" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G285" s="20"/>
       <c r="H285" s="20">
@@ -12174,19 +12147,19 @@
     <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D286" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E286" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F286" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G286" s="20"/>
       <c r="H286" s="20">
@@ -12197,19 +12170,19 @@
     <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C287" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D287" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E287" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F287" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G287" s="20"/>
       <c r="H287" s="20">
@@ -12222,13 +12195,13 @@
         <v>0</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D288" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -12239,19 +12212,19 @@
     <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D289" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E289" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F289" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G289" s="20"/>
       <c r="H289" s="20">
@@ -12264,13 +12237,13 @@
         <v>0</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D290" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -12281,19 +12254,19 @@
     <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C291" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D291" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E291" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F291" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G291" s="20"/>
       <c r="H291" s="20"/>
@@ -12304,13 +12277,13 @@
         <v>0</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D292" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -12321,19 +12294,19 @@
     <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D293" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E293" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F293" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G293" s="20"/>
       <c r="H293" s="20"/>
@@ -12344,13 +12317,13 @@
         <v>0</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D294" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -12361,19 +12334,19 @@
     <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D295" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E295" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F295" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G295" s="20"/>
       <c r="H295" s="20"/>
@@ -12384,13 +12357,13 @@
         <v>0</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D296" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -12401,19 +12374,19 @@
     <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D297" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E297" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F297" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G297" s="20"/>
       <c r="H297" s="20">
@@ -12426,13 +12399,13 @@
         <v>0</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D298" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -12443,44 +12416,44 @@
     <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D299" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E299" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F299" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G299" s="20"/>
       <c r="H299" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I299" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D300" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E300" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F300" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G300" s="20"/>
       <c r="H300" s="20">
@@ -12491,19 +12464,19 @@
     <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D301" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E301" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F301" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G301" s="20"/>
       <c r="H301" s="20">
@@ -12514,19 +12487,19 @@
     <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D302" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E302" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F302" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G302" s="20"/>
       <c r="H302" s="20">
@@ -12537,19 +12510,19 @@
     <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D303" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E303" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F303" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G303" s="20"/>
       <c r="H303" s="20">
@@ -12560,19 +12533,19 @@
     <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D304" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E304" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F304" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G304" s="20"/>
       <c r="H304" s="20" t="b">
@@ -12583,19 +12556,19 @@
     <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D305" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E305" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F305" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G305" s="20"/>
       <c r="H305" s="20">
@@ -12606,19 +12579,19 @@
     <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D306" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E306" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F306" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G306" s="20"/>
       <c r="H306" s="20">
@@ -12629,19 +12602,19 @@
     <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D307" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E307" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F307" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G307" s="20"/>
       <c r="H307" s="20">
@@ -12654,13 +12627,13 @@
         <v>0</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D308" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -12671,19 +12644,19 @@
     <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D309" s="20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E309" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F309" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G309" s="20"/>
       <c r="H309" s="20">
@@ -12694,19 +12667,19 @@
     <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D310" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E310" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F310" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G310" s="20"/>
       <c r="H310" s="20">
@@ -12717,19 +12690,19 @@
     <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D311" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E311" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F311" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G311" s="20"/>
       <c r="H311" s="20">
@@ -12740,19 +12713,19 @@
     <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D312" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E312" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F312" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G312" s="20"/>
       <c r="H312" s="20">
@@ -12765,13 +12738,13 @@
         <v>0</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D313" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -12782,19 +12755,19 @@
     <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E314" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F314" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G314" s="20"/>
       <c r="H314" s="20">
@@ -12805,19 +12778,19 @@
     <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C315" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E315" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F315" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G315" s="20"/>
       <c r="H315" s="20">
@@ -12828,26 +12801,26 @@
     <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D316" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E316" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F316" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G316" s="20"/>
       <c r="H316" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I316" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15">
@@ -12855,13 +12828,13 @@
         <v>0</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C317" s="20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D317" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -12872,44 +12845,44 @@
     <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D318" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E318" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F318" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G318" s="20"/>
       <c r="H318" s="20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I318" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C319" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D319" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E319" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F319" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G319" s="20"/>
       <c r="H319" s="20">
@@ -12922,13 +12895,13 @@
         <v>0</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C320" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D320" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -12939,19 +12912,19 @@
     <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C321" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D321" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E321" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F321" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G321" s="20"/>
       <c r="H321" s="20"/>
@@ -12960,19 +12933,19 @@
     <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D322" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E322" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F322" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G322" s="20"/>
       <c r="H322" s="20"/>
@@ -12981,19 +12954,19 @@
     <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C323" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D323" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E323" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F323" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G323" s="20"/>
       <c r="H323" s="20" t="b">
@@ -13006,13 +12979,13 @@
         <v>0</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C324" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D324" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -13025,13 +12998,13 @@
         <v>0</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D325" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -13042,51 +13015,51 @@
     <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D326" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E326" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F326" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G326" s="20"/>
       <c r="H326" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I326" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C327" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D327" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E327" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F327" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G327" s="20"/>
       <c r="H327" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I327" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -13115,66 +13088,66 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D3" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/projects/example_project.xlsx
+++ b/projects/example_project.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="496">
   <si>
     <t>type</t>
   </si>
@@ -1499,6 +1499,21 @@
   </si>
   <si>
     <t>Place any Problem Specific entries here.  The names will be downcased and underscored automatically, so either enter them as readable or already "snake_cased". Note the values won't be downcased or snake_cased.</t>
+  </si>
+  <si>
+    <t>User Id</t>
+  </si>
+  <si>
+    <t>new_user</t>
+  </si>
+  <si>
+    <t>This is the tag that is applied to your running instances so that you can identify which instances are yours.</t>
+  </si>
+  <si>
+    <t>Worker Nodes</t>
+  </si>
+  <si>
+    <t>Number of worker nodes to start</t>
   </si>
 </sst>
 </file>
@@ -1611,8 +1626,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1281">
+  <cellStyleXfs count="1287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2961,7 +2982,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1281">
+  <cellStyles count="1287">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3602,6 +3623,9 @@
     <cellStyle name="Followed Hyperlink" xfId="1276" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1278" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1286" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4242,6 +4266,9 @@
     <cellStyle name="Hyperlink" xfId="1275" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1277" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1285" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4575,10 +4602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4620,198 +4647,226 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28">
-      <c r="A5" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="3" t="str">
+        <f>INDEX(Lookups!$A$2:$C$5,MATCH(Setup!$B5,Lookups!$A$2:$A$5,0),2)</f>
+        <v>2 Cores</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>INDEX(Lookups!$A$2:$C$5,MATCH(Setup!$B5,Lookups!$A$2:$A$5,0),3)</f>
+        <v>$0.410/hour</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28">
+      <c r="A6" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f>INDEX(Lookups!$A$2:$C$5,MATCH(Setup!$B6,Lookups!$A$2:$A$5,0),2)</f>
+        <v>4 Cores</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>INDEX(Lookups!$A$2:$C$5,MATCH(Setup!$B6,Lookups!$A$2:$A$5,0),3)</f>
+        <v>$0.820/hour</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="13" customFormat="1">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B7" s="25">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="13" customFormat="1">
+      <c r="A9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>482</v>
-      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B12" s="25" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="56">
-      <c r="A12" s="12" t="s">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B15" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="56">
-      <c r="A15" s="12" t="s">
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A17" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="14" t="s">
         <v>490</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="25">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B20" s="25">
         <v>20</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A20" s="12" t="s">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B22" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B23" s="25" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A23" s="12" t="s">
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B25" s="26" t="s">
         <v>488</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E25" s="14" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:5" ht="28">
+      <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B26" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
-      <c r="A26" s="12" t="s">
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A28" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B28" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="14"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4823,13 +4878,13 @@
           <x14:formula1>
             <xm:f>Lookups!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B5</xm:sqref>
+          <xm:sqref>B5:B6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookups!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B16</xm:sqref>
+          <xm:sqref>B18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/projects/example_project.xlsx
+++ b/projects/example_project.xlsx
@@ -10,11 +10,13 @@
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
     <sheet name="Setup" sheetId="7" r:id="rId2"/>
     <sheet name="Variables" sheetId="2" r:id="rId3"/>
-    <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
-    <sheet name="Lookups" sheetId="11" r:id="rId5"/>
+    <sheet name="Outputs" sheetId="12" r:id="rId4"/>
+    <sheet name="BCL Measure Data" sheetId="10" r:id="rId5"/>
+    <sheet name="Lookups" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Y$15</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="527">
   <si>
     <t>type</t>
   </si>
@@ -172,9 +174,6 @@
     <t>Inputs</t>
   </si>
   <si>
-    <t>Example Analysis</t>
-  </si>
-  <si>
     <t>OSM</t>
   </si>
   <si>
@@ -1396,9 +1395,6 @@
     <t>Do NOT change this unless advised</t>
   </si>
   <si>
-    <t>0.1.9</t>
-  </si>
-  <si>
     <t>m2.xlarge</t>
   </si>
   <si>
@@ -1483,9 +1479,6 @@
     <t>../seeds/medium_office.osm</t>
   </si>
   <si>
-    <t>This will be the name that is displayed on the server instance and used to identify the cluster.</t>
-  </si>
-  <si>
     <t>Analysis Type</t>
   </si>
   <si>
@@ -1514,6 +1507,108 @@
   </si>
   <si>
     <t>Number of worker nodes to start</t>
+  </si>
+  <si>
+    <t>Variable Display Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>objective function</t>
+  </si>
+  <si>
+    <t>objective function target</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>(double)</t>
+  </si>
+  <si>
+    <t>Allow Multiple Jobs</t>
+  </si>
+  <si>
+    <t>Use Server As Worker</t>
+  </si>
+  <si>
+    <t>Simulate Data Point Filename</t>
+  </si>
+  <si>
+    <t>simulate_data_point.rb</t>
+  </si>
+  <si>
+    <t>Run Data Point Filename</t>
+  </si>
+  <si>
+    <t>run_openstudio_workflow.rb</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>Heating Natural Gas</t>
+  </si>
+  <si>
+    <t>heating_natural_gas</t>
+  </si>
+  <si>
+    <t>MJ/m2</t>
+  </si>
+  <si>
+    <t>Cooling Electricity</t>
+  </si>
+  <si>
+    <t>cooling_electricity</t>
+  </si>
+  <si>
+    <t>OpenStudio Server Version</t>
+  </si>
+  <si>
+    <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised.</t>
+  </si>
+  <si>
+    <t>Cluster Name</t>
+  </si>
+  <si>
+    <t>LHS Example Project</t>
+  </si>
+  <si>
+    <t>Disable this is the analysis is large</t>
+  </si>
+  <si>
+    <t>Display name of the analysis</t>
+  </si>
+  <si>
+    <t>0.1.10</t>
+  </si>
+  <si>
+    <t>Analysis Cluster</t>
+  </si>
+  <si>
+    <t>This is the name used to identify the compute cluster (snake-cased). If you use this name in other spreadsheets, then you are able to submit multiple jobs to the same compute cluster.</t>
+  </si>
+  <si>
+    <t>Relative to this spreadsheet</t>
+  </si>
+  <si>
+    <t>Continuous Variable Description</t>
+  </si>
+  <si>
+    <t>Discrete Variable Description</t>
+  </si>
+  <si>
+    <t>Discrete Values</t>
+  </si>
+  <si>
+    <t>Discrete Weights</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1668,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1616,6 +1711,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1626,7 +1733,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1287">
+  <cellStyleXfs count="1311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2914,8 +3021,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2978,11 +3109,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1287">
+  <cellStyles count="1311">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3626,6 +3764,18 @@
     <cellStyle name="Followed Hyperlink" xfId="1282" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1284" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1310" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4269,6 +4419,18 @@
     <cellStyle name="Hyperlink" xfId="1281" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1283" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1309" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4574,7 +4736,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
@@ -4586,7 +4748,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4602,16 +4764,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
@@ -4629,7 +4791,7 @@
     </row>
     <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="14"/>
@@ -4638,235 +4800,307 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f>INDEX(Lookups!$A$2:$C$5,MATCH(Setup!$B5,Lookups!$A$2:$A$5,0),2)</f>
-        <v>2 Cores</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f>INDEX(Lookups!$A$2:$C$5,MATCH(Setup!$B5,Lookups!$A$2:$A$5,0),3)</f>
-        <v>$0.410/hour</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28">
+        <v>526</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="56">
       <c r="A6" s="1" t="s">
-        <v>469</v>
+        <v>514</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f>INDEX(Lookups!$A$2:$C$5,MATCH(Setup!$B6,Lookups!$A$2:$A$5,0),2)</f>
-        <v>4 Cores</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f>INDEX(Lookups!$A$2:$C$5,MATCH(Setup!$B6,Lookups!$A$2:$A$5,0),3)</f>
-        <v>$0.820/hour</v>
+        <v>519</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B7" s="25">
+        <v>466</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f>INDEX(Lookups!$A$2:$C$5,MATCH(Setup!$B7,Lookups!$A$2:$A$5,0),2)</f>
+        <v>2 Cores</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f>INDEX(Lookups!$A$2:$C$5,MATCH(Setup!$B7,Lookups!$A$2:$A$5,0),3)</f>
+        <v>$0.410/hour</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28">
+      <c r="A8" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f>INDEX(Lookups!$A$2:$C$5,MATCH(Setup!$B8,Lookups!$A$2:$A$5,0),2)</f>
+        <v>4 Cores</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>INDEX(Lookups!$A$2:$C$5,MATCH(Setup!$B8,Lookups!$A$2:$A$5,0),3)</f>
+        <v>$0.820/hour</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B9" s="25">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="13" customFormat="1">
-      <c r="A9" s="12" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="13" customFormat="1">
+      <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>482</v>
-      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="56">
-      <c r="A14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14" t="s">
-        <v>490</v>
+      <c r="B14" s="25" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="56">
-      <c r="A17" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
+      </c>
+      <c r="B15" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B16" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A23" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+      <c r="B24" s="25" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B25" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B20" s="25">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B26" s="25">
         <v>20</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A22" s="12" t="s">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B28" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A25" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>484</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="42">
-      <c r="A28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4878,13 +5112,13 @@
           <x14:formula1>
             <xm:f>Lookups!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B6</xm:sqref>
+          <xm:sqref>B7:B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lookups!$D$2:$D$3</xm:f>
+            <xm:f>Lookups!$A$8:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B18</xm:sqref>
+          <xm:sqref>B24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4897,11 +5131,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4915,14 +5149,14 @@
     <col min="7" max="7" width="11.5" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="5"/>
-    <col min="10" max="15" width="11.5" style="1"/>
-    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5" style="1"/>
-    <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5" style="1"/>
+    <col min="10" max="17" width="11.5" style="1"/>
+    <col min="18" max="18" width="46.1640625" style="1" customWidth="1"/>
+    <col min="19" max="21" width="11.5" style="1"/>
+    <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18">
+    <row r="1" spans="1:24" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -4934,23 +5168,29 @@
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="J1" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="O1" s="32"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-    </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+    </row>
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -4963,7 +5203,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
+    <row r="3" spans="1:24" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -4971,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>41</v>
@@ -4986,7 +5226,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>12</v>
@@ -5003,32 +5243,38 @@
       <c r="M3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="W3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5039,7 +5285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5058,21 +5304,23 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="b">
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -5082,56 +5330,60 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8"/>
       <c r="H8">
@@ -5150,28 +5402,30 @@
         <f>(K8-J8)/6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9"/>
       <c r="H9">
@@ -5181,25 +5435,27 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10"/>
       <c r="H10">
@@ -5209,25 +5465,27 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11"/>
       <c r="H11">
@@ -5237,25 +5495,27 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="b">
@@ -5265,25 +5525,27 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13"/>
       <c r="H13">
@@ -5293,25 +5555,27 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14"/>
       <c r="H14">
@@ -5321,25 +5585,27 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
         <v>69</v>
       </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15"/>
       <c r="H15">
@@ -5349,61 +5615,63 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" customFormat="1">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" customFormat="1">
       <c r="A16" t="b">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" customFormat="1">
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" customFormat="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" customFormat="1">
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18">
         <v>30</v>
@@ -5421,104 +5689,106 @@
         <f>(K18-J18)/6</f>
         <v>5</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1">
+    <row r="19" spans="1:16" customFormat="1">
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" customFormat="1">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
         <v>81</v>
       </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" customFormat="1">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
         <v>74</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" customFormat="1">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" customFormat="1">
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:16">
       <c r="A22" t="b">
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:16">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23"/>
       <c r="H23">
@@ -5537,44 +5807,46 @@
         <f>(K23-J23)/6</f>
         <v>43.166666666666664</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:16">
       <c r="A24" t="b">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:16">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25"/>
       <c r="H25">
@@ -5593,91 +5865,93 @@
         <f>(K25-J25)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:16">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
         <v>88</v>
       </c>
-      <c r="D26" t="s">
-        <v>89</v>
-      </c>
       <c r="E26" t="s">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26"/>
       <c r="H26">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:16">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
         <v>90</v>
       </c>
-      <c r="D27" t="s">
-        <v>91</v>
-      </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="b">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:16">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29"/>
       <c r="H29">
@@ -5696,61 +5970,63 @@
         <f>(K29-J29)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:16">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
         <v>88</v>
       </c>
-      <c r="D30" t="s">
-        <v>89</v>
-      </c>
       <c r="E30" t="s">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30"/>
       <c r="H30">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:16">
       <c r="A31"/>
       <c r="B31" t="s">
         <v>25</v>
       </c>
       <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
         <v>90</v>
       </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W15"/>
+  <autoFilter ref="A2:Y15"/>
   <mergeCells count="1">
-    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="S1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5764,13 +6040,345 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="16384" width="11.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="15">
+      <c r="A2" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="15">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>462.1635</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>84.162019999999998</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="15"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:9" customFormat="1"/>
+    <row r="17" spans="1:9" customFormat="1"/>
+    <row r="18" spans="1:9" customFormat="1">
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" customFormat="1"/>
+    <row r="20" spans="1:9" customFormat="1"/>
+    <row r="21" spans="1:9" customFormat="1"/>
+    <row r="22" spans="1:9">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView topLeftCell="A123" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
@@ -5787,13 +6395,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="D1" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -5807,16 +6415,16 @@
         <v>25</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -5828,16 +6436,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="b">
@@ -5851,16 +6459,16 @@
         <v>25</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>111</v>
-      </c>
       <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20">
@@ -5874,16 +6482,16 @@
         <v>25</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>113</v>
-      </c>
       <c r="E5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20">
@@ -5897,16 +6505,16 @@
         <v>25</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20">
@@ -5920,16 +6528,16 @@
         <v>25</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="b">
@@ -5943,16 +6551,16 @@
         <v>25</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E8" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20">
@@ -5966,16 +6574,16 @@
         <v>25</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>115</v>
-      </c>
       <c r="E9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20">
@@ -5989,16 +6597,16 @@
         <v>25</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
@@ -6011,13 +6619,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>117</v>
-      </c>
       <c r="D11" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -6031,16 +6639,16 @@
         <v>25</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>107</v>
-      </c>
       <c r="E12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -6052,16 +6660,16 @@
         <v>25</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="E13" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="b">
@@ -6075,16 +6683,16 @@
         <v>25</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>111</v>
-      </c>
       <c r="E14" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20">
@@ -6098,16 +6706,16 @@
         <v>25</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>113</v>
-      </c>
       <c r="E15" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20">
@@ -6121,16 +6729,16 @@
         <v>25</v>
       </c>
       <c r="C16" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E16" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20">
@@ -6144,16 +6752,16 @@
         <v>25</v>
       </c>
       <c r="C17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E17" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="b">
@@ -6167,16 +6775,16 @@
         <v>25</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E18" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20">
@@ -6190,16 +6798,16 @@
         <v>25</v>
       </c>
       <c r="C19" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>115</v>
-      </c>
       <c r="E19" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20">
@@ -6213,16 +6821,16 @@
         <v>25</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E20" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20">
@@ -6235,13 +6843,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>119</v>
-      </c>
       <c r="D21" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -6255,16 +6863,16 @@
         <v>25</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="E22" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="b">
@@ -6278,20 +6886,20 @@
         <v>25</v>
       </c>
       <c r="C23" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="E23" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>122</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I23" s="20"/>
     </row>
@@ -6301,16 +6909,16 @@
         <v>25</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20">
@@ -6324,16 +6932,16 @@
         <v>25</v>
       </c>
       <c r="C25" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>113</v>
-      </c>
       <c r="E25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20">
@@ -6347,16 +6955,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20">
@@ -6370,16 +6978,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20" t="b">
@@ -6393,16 +7001,16 @@
         <v>25</v>
       </c>
       <c r="C28" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20">
@@ -6416,16 +7024,16 @@
         <v>25</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20">
@@ -6439,16 +7047,16 @@
         <v>25</v>
       </c>
       <c r="C30" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E30" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20">
@@ -6461,13 +7069,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>126</v>
-      </c>
       <c r="D31" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -6481,16 +7089,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>128</v>
-      </c>
       <c r="E32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -6502,16 +7110,16 @@
         <v>25</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="E33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20" t="b">
@@ -6525,16 +7133,16 @@
         <v>25</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20">
@@ -6548,16 +7156,16 @@
         <v>25</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20">
@@ -6571,16 +7179,16 @@
         <v>25</v>
       </c>
       <c r="C36" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E36" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20">
@@ -6594,16 +7202,16 @@
         <v>25</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="b">
@@ -6617,16 +7225,16 @@
         <v>25</v>
       </c>
       <c r="C38" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E38" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20">
@@ -6640,16 +7248,16 @@
         <v>25</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20">
@@ -6663,16 +7271,16 @@
         <v>25</v>
       </c>
       <c r="C40" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E40" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20">
@@ -6685,13 +7293,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>134</v>
-      </c>
       <c r="D41" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -6705,16 +7313,16 @@
         <v>25</v>
       </c>
       <c r="C42" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>136</v>
-      </c>
       <c r="E42" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -6726,16 +7334,16 @@
         <v>25</v>
       </c>
       <c r="C43" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="E43" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20" t="b">
@@ -6749,16 +7357,16 @@
         <v>25</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20">
@@ -6772,16 +7380,16 @@
         <v>25</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20">
@@ -6795,16 +7403,16 @@
         <v>25</v>
       </c>
       <c r="C46" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E46" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20">
@@ -6818,16 +7426,16 @@
         <v>25</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="20" t="b">
@@ -6841,16 +7449,16 @@
         <v>25</v>
       </c>
       <c r="C48" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E48" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="20">
@@ -6864,16 +7472,16 @@
         <v>25</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="20">
@@ -6887,16 +7495,16 @@
         <v>25</v>
       </c>
       <c r="C50" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E50" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20">
@@ -6909,13 +7517,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>138</v>
-      </c>
       <c r="D51" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -6929,16 +7537,16 @@
         <v>25</v>
       </c>
       <c r="C52" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="20" t="s">
-        <v>136</v>
-      </c>
       <c r="E52" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -6950,16 +7558,16 @@
         <v>25</v>
       </c>
       <c r="C53" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="E53" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20" t="b">
@@ -6973,16 +7581,16 @@
         <v>25</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20">
@@ -6996,16 +7604,16 @@
         <v>25</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="20">
@@ -7019,16 +7627,16 @@
         <v>25</v>
       </c>
       <c r="C56" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E56" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20">
@@ -7042,16 +7650,16 @@
         <v>25</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="20" t="b">
@@ -7065,16 +7673,16 @@
         <v>25</v>
       </c>
       <c r="C58" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E58" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20">
@@ -7088,16 +7696,16 @@
         <v>25</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20">
@@ -7111,16 +7719,16 @@
         <v>25</v>
       </c>
       <c r="C60" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E60" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="20">
@@ -7133,13 +7741,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C61" s="20" t="s">
-        <v>140</v>
-      </c>
       <c r="D61" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -7153,16 +7761,16 @@
         <v>25</v>
       </c>
       <c r="C62" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="E62" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
@@ -7174,23 +7782,23 @@
         <v>25</v>
       </c>
       <c r="C63" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="20" t="s">
-        <v>144</v>
-      </c>
       <c r="E63" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="I63" s="20" t="s">
         <v>424</v>
-      </c>
-      <c r="I63" s="20" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15">
@@ -7199,16 +7807,16 @@
         <v>25</v>
       </c>
       <c r="C64" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D64" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="E64" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="20" t="b">
@@ -7222,16 +7830,16 @@
         <v>25</v>
       </c>
       <c r="C65" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="20" t="s">
-        <v>146</v>
-      </c>
       <c r="E65" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="20">
@@ -7245,16 +7853,16 @@
         <v>25</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="20">
@@ -7268,16 +7876,16 @@
         <v>25</v>
       </c>
       <c r="C67" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E67" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="20">
@@ -7291,16 +7899,16 @@
         <v>25</v>
       </c>
       <c r="C68" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E68" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="20" t="b">
@@ -7314,16 +7922,16 @@
         <v>25</v>
       </c>
       <c r="C69" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E69" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="20">
@@ -7337,16 +7945,16 @@
         <v>25</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20">
@@ -7360,16 +7968,16 @@
         <v>25</v>
       </c>
       <c r="C71" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E71" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20">
@@ -7382,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="B72" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="20" t="s">
-        <v>150</v>
-      </c>
       <c r="D72" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -7402,16 +8010,16 @@
         <v>25</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
@@ -7423,16 +8031,16 @@
         <v>25</v>
       </c>
       <c r="C74" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D74" s="20" t="s">
-        <v>153</v>
-      </c>
       <c r="E74" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="20">
@@ -7446,23 +8054,23 @@
         <v>25</v>
       </c>
       <c r="C75" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="20" t="s">
-        <v>155</v>
-      </c>
       <c r="E75" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="I75" s="20" t="s">
         <v>426</v>
-      </c>
-      <c r="I75" s="20" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15">
@@ -7471,16 +8079,16 @@
         <v>25</v>
       </c>
       <c r="C76" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D76" s="20" t="s">
-        <v>157</v>
-      </c>
       <c r="E76" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G76" s="20"/>
       <c r="H76" s="20">
@@ -7494,16 +8102,16 @@
         <v>25</v>
       </c>
       <c r="C77" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D77" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="E77" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G77" s="20"/>
       <c r="H77" s="20">
@@ -7517,16 +8125,16 @@
         <v>25</v>
       </c>
       <c r="C78" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="20" t="s">
-        <v>161</v>
-      </c>
       <c r="E78" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="20">
@@ -7540,16 +8148,16 @@
         <v>25</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G79" s="20"/>
       <c r="H79" s="20">
@@ -7563,16 +8171,16 @@
         <v>25</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="20">
@@ -7586,16 +8194,16 @@
         <v>25</v>
       </c>
       <c r="C81" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D81" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E81" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G81" s="20"/>
       <c r="H81" s="20">
@@ -7609,16 +8217,16 @@
         <v>25</v>
       </c>
       <c r="C82" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D82" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E82" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G82" s="20"/>
       <c r="H82" s="20" t="b">
@@ -7632,16 +8240,16 @@
         <v>25</v>
       </c>
       <c r="C83" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D83" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E83" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="20">
@@ -7655,16 +8263,16 @@
         <v>25</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="20">
@@ -7678,16 +8286,16 @@
         <v>25</v>
       </c>
       <c r="C85" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D85" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E85" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G85" s="20"/>
       <c r="H85" s="20">
@@ -7700,13 +8308,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="20" t="s">
-        <v>166</v>
-      </c>
       <c r="D86" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -7720,16 +8328,16 @@
         <v>25</v>
       </c>
       <c r="C87" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D87" s="20" t="s">
-        <v>168</v>
-      </c>
       <c r="E87" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="20">
@@ -7743,20 +8351,20 @@
         <v>25</v>
       </c>
       <c r="C88" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D88" s="20" t="s">
-        <v>170</v>
-      </c>
       <c r="E88" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G88" s="20"/>
       <c r="H88" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I88" s="20"/>
     </row>
@@ -7766,16 +8374,16 @@
         <v>25</v>
       </c>
       <c r="C89" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D89" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="E89" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G89" s="20"/>
       <c r="H89" s="20" t="b">
@@ -7789,16 +8397,16 @@
         <v>25</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E90" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G90" s="20"/>
       <c r="H90" s="20">
@@ -7812,16 +8420,16 @@
         <v>25</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E91" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G91" s="20"/>
       <c r="H91" s="20">
@@ -7835,16 +8443,16 @@
         <v>25</v>
       </c>
       <c r="C92" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D92" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E92" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G92" s="20"/>
       <c r="H92" s="20">
@@ -7858,16 +8466,16 @@
         <v>25</v>
       </c>
       <c r="C93" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D93" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E93" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="20" t="b">
@@ -7881,16 +8489,16 @@
         <v>25</v>
       </c>
       <c r="C94" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D94" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D94" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E94" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="20">
@@ -7904,16 +8512,16 @@
         <v>25</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E95" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="20">
@@ -7927,16 +8535,16 @@
         <v>25</v>
       </c>
       <c r="C96" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D96" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E96" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="20">
@@ -7949,13 +8557,13 @@
         <v>0</v>
       </c>
       <c r="B97" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="D97" s="20" t="s">
         <v>177</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>178</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -7969,23 +8577,23 @@
         <v>25</v>
       </c>
       <c r="C98" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D98" s="20" t="s">
-        <v>180</v>
-      </c>
       <c r="E98" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="I98" s="20" t="s">
         <v>429</v>
-      </c>
-      <c r="I98" s="20" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15">
@@ -7993,13 +8601,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C99" s="20" t="s">
-        <v>182</v>
-      </c>
       <c r="D99" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -8013,16 +8621,16 @@
         <v>25</v>
       </c>
       <c r="C100" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D100" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D100" s="20" t="s">
-        <v>184</v>
-      </c>
       <c r="E100" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -8034,23 +8642,23 @@
         <v>25</v>
       </c>
       <c r="C101" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D101" s="20" t="s">
-        <v>186</v>
-      </c>
       <c r="E101" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G101" s="20"/>
       <c r="H101" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="I101" s="20" t="s">
         <v>431</v>
-      </c>
-      <c r="I101" s="20" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15">
@@ -8058,13 +8666,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C102" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C102" s="20" t="s">
-        <v>188</v>
-      </c>
       <c r="D102" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -8078,16 +8686,16 @@
         <v>25</v>
       </c>
       <c r="C103" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D103" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D103" s="20" t="s">
-        <v>190</v>
-      </c>
       <c r="E103" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G103" s="20"/>
       <c r="H103" s="20">
@@ -8101,23 +8709,23 @@
         <v>25</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E104" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G104" s="20"/>
       <c r="H104" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15">
@@ -8126,16 +8734,16 @@
         <v>25</v>
       </c>
       <c r="C105" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D105" s="20" t="s">
-        <v>193</v>
-      </c>
       <c r="E105" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="20" t="b">
@@ -8149,16 +8757,16 @@
         <v>25</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E106" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
@@ -8169,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="B107" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C107" s="20" t="s">
-        <v>196</v>
-      </c>
       <c r="D107" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -8189,23 +8797,23 @@
         <v>25</v>
       </c>
       <c r="C108" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D108" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D108" s="20" t="s">
-        <v>198</v>
-      </c>
       <c r="E108" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G108" s="20"/>
       <c r="H108" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="I108" s="20" t="s">
         <v>433</v>
-      </c>
-      <c r="I108" s="20" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15">
@@ -8214,16 +8822,16 @@
         <v>25</v>
       </c>
       <c r="C109" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D109" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D109" s="20" t="s">
-        <v>200</v>
-      </c>
       <c r="E109" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="20">
@@ -8237,16 +8845,16 @@
         <v>25</v>
       </c>
       <c r="C110" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D110" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D110" s="20" t="s">
-        <v>202</v>
-      </c>
       <c r="E110" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="20">
@@ -8260,16 +8868,16 @@
         <v>25</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E111" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G111" s="20"/>
       <c r="H111" s="20">
@@ -8283,16 +8891,16 @@
         <v>25</v>
       </c>
       <c r="C112" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D112" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E112" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="20">
@@ -8306,16 +8914,16 @@
         <v>25</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E113" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="20">
@@ -8329,16 +8937,16 @@
         <v>25</v>
       </c>
       <c r="C114" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D114" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E114" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="20">
@@ -8351,13 +8959,13 @@
         <v>0</v>
       </c>
       <c r="B115" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C115" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C115" s="20" t="s">
-        <v>206</v>
-      </c>
       <c r="D115" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -8371,16 +8979,16 @@
         <v>25</v>
       </c>
       <c r="C116" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D116" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D116" s="20" t="s">
-        <v>208</v>
-      </c>
       <c r="E116" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="20">
@@ -8394,16 +9002,16 @@
         <v>25</v>
       </c>
       <c r="C117" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D117" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D117" s="20" t="s">
-        <v>210</v>
-      </c>
       <c r="E117" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="20">
@@ -8417,16 +9025,16 @@
         <v>25</v>
       </c>
       <c r="C118" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D118" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D118" s="20" t="s">
-        <v>212</v>
-      </c>
       <c r="E118" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="20" t="b">
@@ -8439,13 +9047,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C119" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C119" s="20" t="s">
-        <v>214</v>
-      </c>
       <c r="D119" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -8459,16 +9067,16 @@
         <v>25</v>
       </c>
       <c r="C120" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D120" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D120" s="20" t="s">
-        <v>216</v>
-      </c>
       <c r="E120" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="20">
@@ -8482,16 +9090,16 @@
         <v>25</v>
       </c>
       <c r="C121" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D121" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="D121" s="20" t="s">
-        <v>218</v>
-      </c>
       <c r="E121" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="20">
@@ -8505,16 +9113,16 @@
         <v>25</v>
       </c>
       <c r="C122" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D122" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="D122" s="20" t="s">
-        <v>220</v>
-      </c>
       <c r="E122" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G122" s="20"/>
       <c r="H122" s="20">
@@ -8528,16 +9136,16 @@
         <v>25</v>
       </c>
       <c r="C123" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D123" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D123" s="20" t="s">
-        <v>222</v>
-      </c>
       <c r="E123" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G123" s="20"/>
       <c r="H123" s="20">
@@ -8551,16 +9159,16 @@
         <v>25</v>
       </c>
       <c r="C124" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D124" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D124" s="20" t="s">
-        <v>224</v>
-      </c>
       <c r="E124" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G124" s="20"/>
       <c r="H124" s="20" t="b">
@@ -8574,16 +9182,16 @@
         <v>25</v>
       </c>
       <c r="C125" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D125" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D125" s="20" t="s">
-        <v>226</v>
-      </c>
       <c r="E125" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G125" s="20"/>
       <c r="H125" s="20" t="b">
@@ -8596,13 +9204,13 @@
         <v>0</v>
       </c>
       <c r="B126" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C126" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C126" s="20" t="s">
-        <v>228</v>
-      </c>
       <c r="D126" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -8616,23 +9224,23 @@
         <v>25</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E127" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G127" s="20"/>
       <c r="H127" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="I127" s="20" t="s">
         <v>435</v>
-      </c>
-      <c r="I127" s="20" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15">
@@ -8641,16 +9249,16 @@
         <v>25</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E128" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G128" s="20"/>
       <c r="H128" s="20" t="b">
@@ -8664,16 +9272,16 @@
         <v>25</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E129" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F129" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="20">
@@ -8687,16 +9295,16 @@
         <v>25</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E130" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="20">
@@ -8710,16 +9318,16 @@
         <v>25</v>
       </c>
       <c r="C131" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D131" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E131" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G131" s="20"/>
       <c r="H131" s="20">
@@ -8733,16 +9341,16 @@
         <v>25</v>
       </c>
       <c r="C132" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D132" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D132" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E132" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="20" t="b">
@@ -8756,16 +9364,16 @@
         <v>25</v>
       </c>
       <c r="C133" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D133" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D133" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E133" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="20">
@@ -8779,16 +9387,16 @@
         <v>25</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E134" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G134" s="20"/>
       <c r="H134" s="20">
@@ -8802,16 +9410,16 @@
         <v>25</v>
       </c>
       <c r="C135" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D135" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E135" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F135" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G135" s="20"/>
       <c r="H135" s="20">
@@ -8824,13 +9432,13 @@
         <v>0</v>
       </c>
       <c r="B136" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C136" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C136" s="20" t="s">
-        <v>235</v>
-      </c>
       <c r="D136" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -8844,23 +9452,23 @@
         <v>25</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="I137" s="20" t="s">
         <v>435</v>
-      </c>
-      <c r="I137" s="20" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15">
@@ -8869,16 +9477,16 @@
         <v>25</v>
       </c>
       <c r="C138" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D138" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D138" s="20" t="s">
-        <v>237</v>
-      </c>
       <c r="E138" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
@@ -8890,16 +9498,16 @@
         <v>25</v>
       </c>
       <c r="C139" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D139" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D139" s="20" t="s">
-        <v>239</v>
-      </c>
       <c r="E139" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G139" s="20"/>
       <c r="H139" s="20">
@@ -8913,16 +9521,16 @@
         <v>25</v>
       </c>
       <c r="C140" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D140" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D140" s="20" t="s">
-        <v>241</v>
-      </c>
       <c r="E140" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G140" s="20"/>
       <c r="H140" s="20">
@@ -8936,16 +9544,16 @@
         <v>25</v>
       </c>
       <c r="C141" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D141" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="D141" s="20" t="s">
-        <v>243</v>
-      </c>
       <c r="E141" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G141" s="20"/>
       <c r="H141" s="20">
@@ -8959,16 +9567,16 @@
         <v>25</v>
       </c>
       <c r="C142" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D142" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D142" s="20" t="s">
-        <v>245</v>
-      </c>
       <c r="E142" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F142" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G142" s="20"/>
       <c r="H142" s="20">
@@ -8982,16 +9590,16 @@
         <v>25</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E143" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G143" s="20"/>
       <c r="H143" s="20" t="b">
@@ -9005,16 +9613,16 @@
         <v>25</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E144" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F144" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G144" s="20"/>
       <c r="H144" s="20">
@@ -9028,16 +9636,16 @@
         <v>25</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E145" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F145" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G145" s="20"/>
       <c r="H145" s="20">
@@ -9051,16 +9659,16 @@
         <v>25</v>
       </c>
       <c r="C146" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D146" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D146" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E146" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F146" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="20">
@@ -9074,16 +9682,16 @@
         <v>25</v>
       </c>
       <c r="C147" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D147" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D147" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E147" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F147" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G147" s="20"/>
       <c r="H147" s="20" t="b">
@@ -9097,16 +9705,16 @@
         <v>25</v>
       </c>
       <c r="C148" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D148" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D148" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E148" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F148" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G148" s="20"/>
       <c r="H148" s="20">
@@ -9120,16 +9728,16 @@
         <v>25</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E149" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F149" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="20">
@@ -9143,16 +9751,16 @@
         <v>25</v>
       </c>
       <c r="C150" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D150" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E150" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F150" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G150" s="20"/>
       <c r="H150" s="20">
@@ -9165,13 +9773,13 @@
         <v>0</v>
       </c>
       <c r="B151" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C151" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="D151" s="20" t="s">
         <v>250</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>251</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
@@ -9185,16 +9793,16 @@
         <v>25</v>
       </c>
       <c r="C152" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D152" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="D152" s="20" t="s">
-        <v>253</v>
-      </c>
       <c r="E152" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F152" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G152" s="20"/>
       <c r="H152" s="20">
@@ -9207,13 +9815,13 @@
         <v>0</v>
       </c>
       <c r="B153" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C153" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C153" s="20" t="s">
-        <v>255</v>
-      </c>
       <c r="D153" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
@@ -9227,20 +9835,20 @@
         <v>25</v>
       </c>
       <c r="C154" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D154" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="D154" s="20" t="s">
-        <v>257</v>
-      </c>
       <c r="E154" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F154" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G154" s="20"/>
       <c r="H154" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I154" s="20"/>
     </row>
@@ -9250,20 +9858,20 @@
         <v>25</v>
       </c>
       <c r="C155" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="D155" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="D155" s="20" t="s">
-        <v>259</v>
-      </c>
       <c r="E155" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G155" s="20"/>
       <c r="H155" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I155" s="20"/>
     </row>
@@ -9272,13 +9880,13 @@
         <v>0</v>
       </c>
       <c r="B156" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C156" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C156" s="20" t="s">
-        <v>261</v>
-      </c>
       <c r="D156" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
@@ -9292,23 +9900,23 @@
         <v>25</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E157" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F157" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G157" s="20"/>
       <c r="H157" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="I157" s="20" t="s">
         <v>435</v>
-      </c>
-      <c r="I157" s="20" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15">
@@ -9317,16 +9925,16 @@
         <v>25</v>
       </c>
       <c r="C158" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D158" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="D158" s="20" t="s">
-        <v>263</v>
-      </c>
       <c r="E158" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F158" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G158" s="20"/>
       <c r="H158" s="20">
@@ -9340,16 +9948,16 @@
         <v>25</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D159" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E159" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G159" s="20"/>
       <c r="H159" s="20" t="b">
@@ -9363,16 +9971,16 @@
         <v>25</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E160" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F160" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G160" s="20"/>
       <c r="H160" s="20">
@@ -9386,16 +9994,16 @@
         <v>25</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E161" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F161" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G161" s="20"/>
       <c r="H161" s="20">
@@ -9409,16 +10017,16 @@
         <v>25</v>
       </c>
       <c r="C162" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D162" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D162" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E162" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G162" s="20"/>
       <c r="H162" s="20">
@@ -9432,16 +10040,16 @@
         <v>25</v>
       </c>
       <c r="C163" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D163" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D163" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E163" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F163" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G163" s="20"/>
       <c r="H163" s="20" t="b">
@@ -9455,16 +10063,16 @@
         <v>25</v>
       </c>
       <c r="C164" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D164" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D164" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E164" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F164" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G164" s="20"/>
       <c r="H164" s="20">
@@ -9478,16 +10086,16 @@
         <v>25</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E165" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G165" s="20"/>
       <c r="H165" s="20">
@@ -9501,16 +10109,16 @@
         <v>25</v>
       </c>
       <c r="C166" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D166" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E166" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F166" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G166" s="20"/>
       <c r="H166" s="20">
@@ -9523,13 +10131,13 @@
         <v>0</v>
       </c>
       <c r="B167" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C167" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="C167" s="20" t="s">
-        <v>269</v>
-      </c>
       <c r="D167" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
@@ -9543,23 +10151,23 @@
         <v>25</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E168" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F168" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G168" s="20"/>
       <c r="H168" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="I168" s="20" t="s">
         <v>439</v>
-      </c>
-      <c r="I168" s="20" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15">
@@ -9568,16 +10176,16 @@
         <v>25</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E169" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F169" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G169" s="20"/>
       <c r="H169" s="20">
@@ -9591,16 +10199,16 @@
         <v>25</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E170" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F170" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G170" s="20"/>
       <c r="H170" s="20" t="b">
@@ -9614,16 +10222,16 @@
         <v>25</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E171" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G171" s="20"/>
       <c r="H171" s="20">
@@ -9637,16 +10245,16 @@
         <v>25</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E172" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F172" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G172" s="20"/>
       <c r="H172" s="20">
@@ -9660,16 +10268,16 @@
         <v>25</v>
       </c>
       <c r="C173" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D173" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D173" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E173" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G173" s="20"/>
       <c r="H173" s="20">
@@ -9683,16 +10291,16 @@
         <v>25</v>
       </c>
       <c r="C174" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D174" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D174" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E174" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F174" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G174" s="20"/>
       <c r="H174" s="20" t="b">
@@ -9706,16 +10314,16 @@
         <v>25</v>
       </c>
       <c r="C175" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D175" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D175" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E175" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F175" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G175" s="20"/>
       <c r="H175" s="20">
@@ -9729,16 +10337,16 @@
         <v>25</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E176" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F176" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G176" s="20"/>
       <c r="H176" s="20">
@@ -9752,16 +10360,16 @@
         <v>25</v>
       </c>
       <c r="C177" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D177" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E177" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F177" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G177" s="20"/>
       <c r="H177" s="20">
@@ -9774,13 +10382,13 @@
         <v>0</v>
       </c>
       <c r="B178" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C178" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="C178" s="20" t="s">
-        <v>274</v>
-      </c>
       <c r="D178" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -9794,16 +10402,16 @@
         <v>25</v>
       </c>
       <c r="C179" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D179" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D179" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="E179" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F179" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G179" s="20"/>
       <c r="H179" s="20">
@@ -9817,16 +10425,16 @@
         <v>25</v>
       </c>
       <c r="C180" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D180" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="D180" s="20" t="s">
-        <v>278</v>
-      </c>
       <c r="E180" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F180" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G180" s="20"/>
       <c r="H180" s="20">
@@ -9840,16 +10448,16 @@
         <v>25</v>
       </c>
       <c r="C181" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D181" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D181" s="20" t="s">
-        <v>280</v>
-      </c>
       <c r="E181" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F181" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G181" s="20"/>
       <c r="H181" s="20">
@@ -9863,16 +10471,16 @@
         <v>25</v>
       </c>
       <c r="C182" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D182" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="D182" s="20" t="s">
-        <v>282</v>
-      </c>
       <c r="E182" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F182" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G182" s="20"/>
       <c r="H182" s="20">
@@ -9885,13 +10493,13 @@
         <v>0</v>
       </c>
       <c r="B183" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C183" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="C183" s="20" t="s">
-        <v>284</v>
-      </c>
       <c r="D183" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
@@ -9905,16 +10513,16 @@
         <v>25</v>
       </c>
       <c r="C184" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D184" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="D184" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="E184" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F184" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G184" s="20"/>
       <c r="H184" s="20">
@@ -9928,16 +10536,16 @@
         <v>25</v>
       </c>
       <c r="C185" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D185" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="D185" s="20" t="s">
-        <v>278</v>
-      </c>
       <c r="E185" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F185" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G185" s="20"/>
       <c r="H185" s="20">
@@ -9951,16 +10559,16 @@
         <v>25</v>
       </c>
       <c r="C186" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D186" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="D186" s="20" t="s">
-        <v>280</v>
-      </c>
       <c r="E186" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F186" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G186" s="20"/>
       <c r="H186" s="20">
@@ -9974,16 +10582,16 @@
         <v>25</v>
       </c>
       <c r="C187" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D187" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="D187" s="20" t="s">
-        <v>282</v>
-      </c>
       <c r="E187" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F187" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G187" s="20"/>
       <c r="H187" s="20">
@@ -9996,13 +10604,13 @@
         <v>0</v>
       </c>
       <c r="B188" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C188" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="C188" s="20" t="s">
-        <v>286</v>
-      </c>
       <c r="D188" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -10016,16 +10624,16 @@
         <v>25</v>
       </c>
       <c r="C189" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D189" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="D189" s="20" t="s">
-        <v>288</v>
-      </c>
       <c r="E189" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F189" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G189" s="20"/>
       <c r="H189" s="20"/>
@@ -10037,16 +10645,16 @@
         <v>25</v>
       </c>
       <c r="C190" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D190" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="D190" s="20" t="s">
-        <v>290</v>
-      </c>
       <c r="E190" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F190" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G190" s="20"/>
       <c r="H190" s="20" t="b">
@@ -10059,13 +10667,13 @@
         <v>0</v>
       </c>
       <c r="B191" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C191" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="C191" s="20" t="s">
-        <v>292</v>
-      </c>
       <c r="D191" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
@@ -10079,16 +10687,16 @@
         <v>25</v>
       </c>
       <c r="C192" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D192" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="D192" s="20" t="s">
-        <v>294</v>
-      </c>
       <c r="E192" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F192" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G192" s="20"/>
       <c r="H192" s="20" t="b">
@@ -10102,23 +10710,23 @@
         <v>25</v>
       </c>
       <c r="C193" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D193" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="D193" s="20" t="s">
-        <v>296</v>
-      </c>
       <c r="E193" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F193" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G193" s="20"/>
       <c r="H193" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="I193" s="20" t="s">
         <v>441</v>
-      </c>
-      <c r="I193" s="20" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15">
@@ -10127,16 +10735,16 @@
         <v>25</v>
       </c>
       <c r="C194" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D194" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="D194" s="20" t="s">
-        <v>298</v>
-      </c>
       <c r="E194" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F194" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G194" s="20"/>
       <c r="H194" s="20"/>
@@ -10148,23 +10756,23 @@
         <v>25</v>
       </c>
       <c r="C195" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D195" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="D195" s="20" t="s">
-        <v>300</v>
-      </c>
       <c r="E195" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F195" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G195" s="20"/>
       <c r="H195" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="I195" s="20" t="s">
         <v>443</v>
-      </c>
-      <c r="I195" s="20" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15">
@@ -10173,23 +10781,23 @@
         <v>25</v>
       </c>
       <c r="C196" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D196" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D196" s="20" t="s">
-        <v>302</v>
-      </c>
       <c r="E196" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F196" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G196" s="20"/>
       <c r="H196" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="I196" s="20" t="s">
         <v>445</v>
-      </c>
-      <c r="I196" s="20" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15">
@@ -10197,13 +10805,13 @@
         <v>0</v>
       </c>
       <c r="B197" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C197" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="C197" s="20" t="s">
-        <v>304</v>
-      </c>
       <c r="D197" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -10217,23 +10825,23 @@
         <v>25</v>
       </c>
       <c r="C198" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D198" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D198" s="20" t="s">
-        <v>55</v>
-      </c>
       <c r="E198" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F198" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G198" s="20"/>
       <c r="H198" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I198" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15">
@@ -10242,16 +10850,16 @@
         <v>25</v>
       </c>
       <c r="C199" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D199" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="D199" s="20" t="s">
-        <v>306</v>
-      </c>
       <c r="E199" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F199" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G199" s="20"/>
       <c r="H199" s="20">
@@ -10265,16 +10873,16 @@
         <v>25</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E200" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F200" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G200" s="20"/>
       <c r="H200" s="20">
@@ -10288,16 +10896,16 @@
         <v>25</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E201" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F201" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G201" s="20"/>
       <c r="H201" s="20">
@@ -10311,16 +10919,16 @@
         <v>25</v>
       </c>
       <c r="C202" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D202" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D202" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E202" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F202" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G202" s="20"/>
       <c r="H202" s="20">
@@ -10334,16 +10942,16 @@
         <v>25</v>
       </c>
       <c r="C203" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D203" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D203" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E203" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F203" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G203" s="20"/>
       <c r="H203" s="20" t="b">
@@ -10357,16 +10965,16 @@
         <v>25</v>
       </c>
       <c r="C204" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D204" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D204" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E204" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F204" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G204" s="20"/>
       <c r="H204" s="20">
@@ -10380,16 +10988,16 @@
         <v>25</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E205" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F205" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G205" s="20"/>
       <c r="H205" s="20">
@@ -10403,16 +11011,16 @@
         <v>25</v>
       </c>
       <c r="C206" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D206" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E206" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F206" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G206" s="20"/>
       <c r="H206" s="20">
@@ -10425,13 +11033,13 @@
         <v>0</v>
       </c>
       <c r="B207" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C207" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D207" s="20" t="s">
         <v>77</v>
-      </c>
-      <c r="C207" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D207" s="20" t="s">
-        <v>78</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
@@ -10445,23 +11053,23 @@
         <v>25</v>
       </c>
       <c r="C208" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D208" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D208" s="20" t="s">
-        <v>55</v>
-      </c>
       <c r="E208" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F208" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G208" s="20"/>
       <c r="H208" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I208" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15">
@@ -10470,16 +11078,16 @@
         <v>25</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E209" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F209" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G209" s="20"/>
       <c r="H209" s="20">
@@ -10493,16 +11101,16 @@
         <v>25</v>
       </c>
       <c r="C210" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D210" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D210" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="E210" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F210" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G210" s="20"/>
       <c r="H210" s="20">
@@ -10516,16 +11124,16 @@
         <v>25</v>
       </c>
       <c r="C211" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D211" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D211" s="20" t="s">
-        <v>60</v>
-      </c>
       <c r="E211" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F211" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G211" s="20"/>
       <c r="H211" s="20">
@@ -10539,16 +11147,16 @@
         <v>25</v>
       </c>
       <c r="C212" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D212" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D212" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E212" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F212" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G212" s="20"/>
       <c r="H212" s="20">
@@ -10562,16 +11170,16 @@
         <v>25</v>
       </c>
       <c r="C213" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D213" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D213" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E213" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F213" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G213" s="20"/>
       <c r="H213" s="20" t="b">
@@ -10585,16 +11193,16 @@
         <v>25</v>
       </c>
       <c r="C214" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D214" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D214" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E214" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F214" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G214" s="20"/>
       <c r="H214" s="20">
@@ -10608,16 +11216,16 @@
         <v>25</v>
       </c>
       <c r="C215" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D215" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D215" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="E215" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F215" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G215" s="20"/>
       <c r="H215" s="20">
@@ -10631,16 +11239,16 @@
         <v>25</v>
       </c>
       <c r="C216" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D216" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E216" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F216" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G216" s="20"/>
       <c r="H216" s="20">
@@ -10653,13 +11261,13 @@
         <v>0</v>
       </c>
       <c r="B217" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C217" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="C217" s="20" t="s">
-        <v>312</v>
-      </c>
       <c r="D217" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -10673,16 +11281,16 @@
         <v>25</v>
       </c>
       <c r="C218" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D218" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="D218" s="20" t="s">
-        <v>314</v>
-      </c>
       <c r="E218" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F218" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G218" s="20"/>
       <c r="H218" s="20"/>
@@ -10694,16 +11302,16 @@
         <v>25</v>
       </c>
       <c r="C219" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D219" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="D219" s="20" t="s">
-        <v>316</v>
-      </c>
       <c r="E219" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F219" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G219" s="20"/>
       <c r="H219" s="20">
@@ -10717,16 +11325,16 @@
         <v>25</v>
       </c>
       <c r="C220" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D220" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="D220" s="20" t="s">
-        <v>318</v>
-      </c>
       <c r="E220" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F220" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G220" s="20"/>
       <c r="H220" s="20" t="b">
@@ -10740,16 +11348,16 @@
         <v>25</v>
       </c>
       <c r="C221" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D221" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="D221" s="20" t="s">
-        <v>320</v>
-      </c>
       <c r="E221" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F221" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G221" s="20"/>
       <c r="H221" s="20">
@@ -10763,16 +11371,16 @@
         <v>25</v>
       </c>
       <c r="C222" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D222" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="D222" s="20" t="s">
-        <v>322</v>
-      </c>
       <c r="E222" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F222" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G222" s="20"/>
       <c r="H222" s="20">
@@ -10786,16 +11394,16 @@
         <v>25</v>
       </c>
       <c r="C223" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D223" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D223" s="20" t="s">
-        <v>324</v>
-      </c>
       <c r="E223" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F223" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G223" s="20"/>
       <c r="H223" s="20" t="b">
@@ -10809,16 +11417,16 @@
         <v>25</v>
       </c>
       <c r="C224" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D224" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="D224" s="20" t="s">
-        <v>326</v>
-      </c>
       <c r="E224" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F224" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G224" s="20"/>
       <c r="H224" s="20">
@@ -10832,16 +11440,16 @@
         <v>25</v>
       </c>
       <c r="C225" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D225" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="D225" s="20" t="s">
-        <v>328</v>
-      </c>
       <c r="E225" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F225" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G225" s="20"/>
       <c r="H225" s="20">
@@ -10855,16 +11463,16 @@
         <v>25</v>
       </c>
       <c r="C226" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D226" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="D226" s="20" t="s">
-        <v>330</v>
-      </c>
       <c r="E226" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F226" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G226" s="20"/>
       <c r="H226" s="20" t="b">
@@ -10878,16 +11486,16 @@
         <v>25</v>
       </c>
       <c r="C227" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D227" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="D227" s="20" t="s">
-        <v>332</v>
-      </c>
       <c r="E227" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F227" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G227" s="20"/>
       <c r="H227" s="20">
@@ -10901,16 +11509,16 @@
         <v>25</v>
       </c>
       <c r="C228" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D228" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="D228" s="20" t="s">
-        <v>334</v>
-      </c>
       <c r="E228" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F228" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G228" s="20"/>
       <c r="H228" s="20">
@@ -10924,16 +11532,16 @@
         <v>25</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D229" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E229" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F229" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G229" s="20"/>
       <c r="H229" s="20">
@@ -10947,16 +11555,16 @@
         <v>25</v>
       </c>
       <c r="C230" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D230" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D230" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E230" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F230" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G230" s="20"/>
       <c r="H230" s="20">
@@ -10970,16 +11578,16 @@
         <v>25</v>
       </c>
       <c r="C231" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D231" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D231" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E231" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F231" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G231" s="20"/>
       <c r="H231" s="20">
@@ -10993,16 +11601,16 @@
         <v>25</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D232" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E232" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F232" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G232" s="20"/>
       <c r="H232" s="20">
@@ -11016,16 +11624,16 @@
         <v>25</v>
       </c>
       <c r="C233" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D233" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E233" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F233" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G233" s="20"/>
       <c r="H233" s="20">
@@ -11038,13 +11646,13 @@
         <v>0</v>
       </c>
       <c r="B234" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C234" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="C234" s="20" t="s">
-        <v>338</v>
-      </c>
       <c r="D234" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -11058,16 +11666,16 @@
         <v>25</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E235" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F235" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G235" s="20"/>
       <c r="H235" s="20"/>
@@ -11079,16 +11687,16 @@
         <v>25</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D236" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E236" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F236" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G236" s="20"/>
       <c r="H236" s="20">
@@ -11102,16 +11710,16 @@
         <v>25</v>
       </c>
       <c r="C237" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D237" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="D237" s="20" t="s">
-        <v>318</v>
-      </c>
       <c r="E237" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F237" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G237" s="20"/>
       <c r="H237" s="20" t="b">
@@ -11125,16 +11733,16 @@
         <v>25</v>
       </c>
       <c r="C238" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D238" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="D238" s="20" t="s">
-        <v>320</v>
-      </c>
       <c r="E238" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F238" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G238" s="20"/>
       <c r="H238" s="20">
@@ -11148,16 +11756,16 @@
         <v>25</v>
       </c>
       <c r="C239" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D239" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="D239" s="20" t="s">
-        <v>322</v>
-      </c>
       <c r="E239" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F239" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G239" s="20"/>
       <c r="H239" s="20">
@@ -11171,16 +11779,16 @@
         <v>25</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E240" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F240" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G240" s="20"/>
       <c r="H240" s="20" t="b">
@@ -11194,16 +11802,16 @@
         <v>25</v>
       </c>
       <c r="C241" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D241" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="D241" s="20" t="s">
-        <v>326</v>
-      </c>
       <c r="E241" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F241" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G241" s="20"/>
       <c r="H241" s="20">
@@ -11217,16 +11825,16 @@
         <v>25</v>
       </c>
       <c r="C242" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D242" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="D242" s="20" t="s">
-        <v>328</v>
-      </c>
       <c r="E242" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F242" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G242" s="20"/>
       <c r="H242" s="20">
@@ -11240,16 +11848,16 @@
         <v>25</v>
       </c>
       <c r="C243" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D243" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="D243" s="20" t="s">
-        <v>330</v>
-      </c>
       <c r="E243" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F243" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G243" s="20"/>
       <c r="H243" s="20" t="b">
@@ -11263,16 +11871,16 @@
         <v>25</v>
       </c>
       <c r="C244" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D244" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="D244" s="20" t="s">
-        <v>332</v>
-      </c>
       <c r="E244" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F244" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G244" s="20"/>
       <c r="H244" s="20">
@@ -11286,16 +11894,16 @@
         <v>25</v>
       </c>
       <c r="C245" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D245" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="D245" s="20" t="s">
-        <v>334</v>
-      </c>
       <c r="E245" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F245" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G245" s="20"/>
       <c r="H245" s="20">
@@ -11309,16 +11917,16 @@
         <v>25</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E246" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F246" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G246" s="20"/>
       <c r="H246" s="20">
@@ -11332,16 +11940,16 @@
         <v>25</v>
       </c>
       <c r="C247" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D247" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D247" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E247" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F247" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G247" s="20"/>
       <c r="H247" s="20">
@@ -11355,16 +11963,16 @@
         <v>25</v>
       </c>
       <c r="C248" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D248" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D248" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E248" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F248" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G248" s="20"/>
       <c r="H248" s="20">
@@ -11378,16 +11986,16 @@
         <v>25</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E249" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F249" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G249" s="20"/>
       <c r="H249" s="20">
@@ -11401,16 +12009,16 @@
         <v>25</v>
       </c>
       <c r="C250" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D250" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E250" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F250" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G250" s="20"/>
       <c r="H250" s="20">
@@ -11423,13 +12031,13 @@
         <v>0</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -11443,23 +12051,23 @@
         <v>25</v>
       </c>
       <c r="C252" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D252" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D252" s="20" t="s">
-        <v>55</v>
-      </c>
       <c r="E252" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F252" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G252" s="20"/>
       <c r="H252" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I252" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15">
@@ -11468,16 +12076,16 @@
         <v>25</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E253" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F253" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G253" s="20"/>
       <c r="H253" s="20">
@@ -11491,16 +12099,16 @@
         <v>25</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E254" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F254" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G254" s="20"/>
       <c r="H254" s="20">
@@ -11514,16 +12122,16 @@
         <v>25</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E255" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F255" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G255" s="20"/>
       <c r="H255" s="20">
@@ -11537,16 +12145,16 @@
         <v>25</v>
       </c>
       <c r="C256" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D256" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E256" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F256" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G256" s="20"/>
       <c r="H256" s="20">
@@ -11559,13 +12167,13 @@
         <v>0</v>
       </c>
       <c r="B257" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C257" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="C257" s="20" t="s">
-        <v>346</v>
-      </c>
       <c r="D257" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -11579,23 +12187,23 @@
         <v>25</v>
       </c>
       <c r="C258" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D258" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D258" s="20" t="s">
-        <v>55</v>
-      </c>
       <c r="E258" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F258" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G258" s="20"/>
       <c r="H258" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I258" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15">
@@ -11604,16 +12212,16 @@
         <v>25</v>
       </c>
       <c r="C259" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D259" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="D259" s="20" t="s">
-        <v>348</v>
-      </c>
       <c r="E259" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F259" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G259" s="20"/>
       <c r="H259" s="20">
@@ -11626,13 +12234,13 @@
         <v>0</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -11645,13 +12253,13 @@
         <v>0</v>
       </c>
       <c r="B261" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C261" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C261" s="20" t="s">
-        <v>351</v>
-      </c>
       <c r="D261" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -11664,13 +12272,13 @@
         <v>0</v>
       </c>
       <c r="B262" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C262" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="C262" s="20" t="s">
-        <v>353</v>
-      </c>
       <c r="D262" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -11684,16 +12292,16 @@
         <v>25</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E263" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F263" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G263" s="20"/>
       <c r="H263" s="20"/>
@@ -11705,16 +12313,16 @@
         <v>25</v>
       </c>
       <c r="C264" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D264" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="D264" s="20" t="s">
-        <v>356</v>
-      </c>
       <c r="E264" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F264" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G264" s="20"/>
       <c r="H264" s="20" t="b">
@@ -11728,16 +12336,16 @@
         <v>25</v>
       </c>
       <c r="C265" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D265" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="D265" s="20" t="s">
-        <v>358</v>
-      </c>
       <c r="E265" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F265" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G265" s="20"/>
       <c r="H265" s="20" t="b">
@@ -11751,16 +12359,16 @@
         <v>25</v>
       </c>
       <c r="C266" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D266" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D266" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="E266" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F266" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G266" s="20"/>
       <c r="H266" s="20" t="b">
@@ -11774,16 +12382,16 @@
         <v>25</v>
       </c>
       <c r="C267" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D267" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D267" s="20" t="s">
-        <v>111</v>
-      </c>
       <c r="E267" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F267" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G267" s="20"/>
       <c r="H267" s="20">
@@ -11797,16 +12405,16 @@
         <v>25</v>
       </c>
       <c r="C268" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D268" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D268" s="20" t="s">
-        <v>113</v>
-      </c>
       <c r="E268" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F268" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G268" s="20"/>
       <c r="H268" s="20">
@@ -11820,16 +12428,16 @@
         <v>25</v>
       </c>
       <c r="C269" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D269" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D269" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E269" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F269" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G269" s="20"/>
       <c r="H269" s="20">
@@ -11843,16 +12451,16 @@
         <v>25</v>
       </c>
       <c r="C270" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D270" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D270" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E270" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F270" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G270" s="20"/>
       <c r="H270" s="20" t="b">
@@ -11866,16 +12474,16 @@
         <v>25</v>
       </c>
       <c r="C271" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D271" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D271" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E271" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F271" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G271" s="20"/>
       <c r="H271" s="20">
@@ -11889,16 +12497,16 @@
         <v>25</v>
       </c>
       <c r="C272" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D272" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D272" s="20" t="s">
-        <v>115</v>
-      </c>
       <c r="E272" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F272" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G272" s="20"/>
       <c r="H272" s="20">
@@ -11912,16 +12520,16 @@
         <v>25</v>
       </c>
       <c r="C273" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D273" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E273" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F273" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G273" s="20"/>
       <c r="H273" s="20">
@@ -11934,13 +12542,13 @@
         <v>0</v>
       </c>
       <c r="B274" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C274" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C274" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="D274" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -11954,16 +12562,16 @@
         <v>25</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E275" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F275" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G275" s="20"/>
       <c r="H275" s="20">
@@ -11976,13 +12584,13 @@
         <v>0</v>
       </c>
       <c r="B276" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="C276" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="C276" s="20" t="s">
-        <v>361</v>
-      </c>
       <c r="D276" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -11996,23 +12604,23 @@
         <v>25</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E277" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F277" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G277" s="20"/>
       <c r="H277" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="I277" s="20" t="s">
         <v>435</v>
-      </c>
-      <c r="I277" s="20" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="15">
@@ -12021,16 +12629,16 @@
         <v>25</v>
       </c>
       <c r="C278" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="D278" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="D278" s="20" t="s">
-        <v>364</v>
-      </c>
       <c r="E278" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F278" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G278" s="20"/>
       <c r="H278" s="20">
@@ -12044,16 +12652,16 @@
         <v>25</v>
       </c>
       <c r="C279" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D279" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="D279" s="20" t="s">
-        <v>366</v>
-      </c>
       <c r="E279" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F279" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G279" s="20"/>
       <c r="H279" s="20">
@@ -12067,16 +12675,16 @@
         <v>25</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D280" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E280" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F280" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G280" s="20"/>
       <c r="H280" s="20" t="b">
@@ -12090,16 +12698,16 @@
         <v>25</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E281" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F281" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G281" s="20"/>
       <c r="H281" s="20">
@@ -12113,16 +12721,16 @@
         <v>25</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D282" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E282" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F282" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G282" s="20"/>
       <c r="H282" s="20">
@@ -12136,16 +12744,16 @@
         <v>25</v>
       </c>
       <c r="C283" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D283" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D283" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E283" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F283" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G283" s="20"/>
       <c r="H283" s="20">
@@ -12159,16 +12767,16 @@
         <v>25</v>
       </c>
       <c r="C284" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D284" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D284" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E284" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F284" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G284" s="20"/>
       <c r="H284" s="20" t="b">
@@ -12182,16 +12790,16 @@
         <v>25</v>
       </c>
       <c r="C285" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D285" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D285" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E285" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F285" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G285" s="20"/>
       <c r="H285" s="20">
@@ -12205,16 +12813,16 @@
         <v>25</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D286" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E286" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F286" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G286" s="20"/>
       <c r="H286" s="20">
@@ -12228,16 +12836,16 @@
         <v>25</v>
       </c>
       <c r="C287" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D287" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E287" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F287" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G287" s="20"/>
       <c r="H287" s="20">
@@ -12250,13 +12858,13 @@
         <v>0</v>
       </c>
       <c r="B288" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C288" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="C288" s="20" t="s">
-        <v>372</v>
-      </c>
       <c r="D288" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -12270,16 +12878,16 @@
         <v>25</v>
       </c>
       <c r="C289" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="D289" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="D289" s="20" t="s">
-        <v>374</v>
-      </c>
       <c r="E289" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F289" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G289" s="20"/>
       <c r="H289" s="20">
@@ -12292,13 +12900,13 @@
         <v>0</v>
       </c>
       <c r="B290" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C290" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="C290" s="20" t="s">
-        <v>376</v>
-      </c>
       <c r="D290" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -12312,16 +12920,16 @@
         <v>25</v>
       </c>
       <c r="C291" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D291" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="D291" s="20" t="s">
-        <v>378</v>
-      </c>
       <c r="E291" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F291" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G291" s="20"/>
       <c r="H291" s="20"/>
@@ -12332,13 +12940,13 @@
         <v>0</v>
       </c>
       <c r="B292" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C292" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="C292" s="20" t="s">
-        <v>380</v>
-      </c>
       <c r="D292" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -12352,16 +12960,16 @@
         <v>25</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D293" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E293" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F293" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G293" s="20"/>
       <c r="H293" s="20"/>
@@ -12372,13 +12980,13 @@
         <v>0</v>
       </c>
       <c r="B294" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C294" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C294" s="20" t="s">
-        <v>383</v>
-      </c>
       <c r="D294" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -12392,16 +13000,16 @@
         <v>25</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D295" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E295" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F295" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G295" s="20"/>
       <c r="H295" s="20"/>
@@ -12412,13 +13020,13 @@
         <v>0</v>
       </c>
       <c r="B296" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C296" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="C296" s="20" t="s">
-        <v>386</v>
-      </c>
       <c r="D296" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -12432,16 +13040,16 @@
         <v>25</v>
       </c>
       <c r="C297" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="D297" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="D297" s="20" t="s">
-        <v>388</v>
-      </c>
       <c r="E297" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F297" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G297" s="20"/>
       <c r="H297" s="20">
@@ -12454,13 +13062,13 @@
         <v>0</v>
       </c>
       <c r="B298" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C298" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="C298" s="20" t="s">
-        <v>390</v>
-      </c>
       <c r="D298" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -12474,23 +13082,23 @@
         <v>25</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D299" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E299" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F299" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G299" s="20"/>
       <c r="H299" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I299" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15">
@@ -12499,16 +13107,16 @@
         <v>25</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D300" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E300" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F300" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G300" s="20"/>
       <c r="H300" s="20">
@@ -12522,16 +13130,16 @@
         <v>25</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D301" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E301" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F301" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G301" s="20"/>
       <c r="H301" s="20">
@@ -12545,16 +13153,16 @@
         <v>25</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D302" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E302" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F302" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G302" s="20"/>
       <c r="H302" s="20">
@@ -12568,16 +13176,16 @@
         <v>25</v>
       </c>
       <c r="C303" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D303" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D303" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="E303" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F303" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G303" s="20"/>
       <c r="H303" s="20">
@@ -12591,16 +13199,16 @@
         <v>25</v>
       </c>
       <c r="C304" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D304" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D304" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E304" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F304" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G304" s="20"/>
       <c r="H304" s="20" t="b">
@@ -12614,16 +13222,16 @@
         <v>25</v>
       </c>
       <c r="C305" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D305" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D305" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="E305" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F305" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G305" s="20"/>
       <c r="H305" s="20">
@@ -12637,16 +13245,16 @@
         <v>25</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D306" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E306" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F306" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G306" s="20"/>
       <c r="H306" s="20">
@@ -12660,16 +13268,16 @@
         <v>25</v>
       </c>
       <c r="C307" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D307" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E307" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F307" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G307" s="20"/>
       <c r="H307" s="20">
@@ -12682,13 +13290,13 @@
         <v>0</v>
       </c>
       <c r="B308" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C308" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="C308" s="20" t="s">
-        <v>397</v>
-      </c>
       <c r="D308" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -12702,16 +13310,16 @@
         <v>25</v>
       </c>
       <c r="C309" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="D309" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="D309" s="20" t="s">
-        <v>399</v>
-      </c>
       <c r="E309" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F309" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G309" s="20"/>
       <c r="H309" s="20">
@@ -12725,16 +13333,16 @@
         <v>25</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D310" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E310" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F310" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G310" s="20"/>
       <c r="H310" s="20">
@@ -12748,16 +13356,16 @@
         <v>25</v>
       </c>
       <c r="C311" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D311" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D311" s="20" t="s">
-        <v>115</v>
-      </c>
       <c r="E311" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F311" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G311" s="20"/>
       <c r="H311" s="20">
@@ -12771,16 +13379,16 @@
         <v>25</v>
       </c>
       <c r="C312" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D312" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D312" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E312" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F312" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G312" s="20"/>
       <c r="H312" s="20">
@@ -12793,13 +13401,13 @@
         <v>0</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D313" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -12813,16 +13421,16 @@
         <v>25</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E314" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F314" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G314" s="20"/>
       <c r="H314" s="20">
@@ -12836,16 +13444,16 @@
         <v>25</v>
       </c>
       <c r="C315" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D315" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D315" s="20" t="s">
-        <v>89</v>
-      </c>
       <c r="E315" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F315" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G315" s="20"/>
       <c r="H315" s="20">
@@ -12859,23 +13467,23 @@
         <v>25</v>
       </c>
       <c r="C316" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D316" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D316" s="20" t="s">
-        <v>91</v>
-      </c>
       <c r="E316" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F316" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G316" s="20"/>
       <c r="H316" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I316" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15">
@@ -12883,13 +13491,13 @@
         <v>0</v>
       </c>
       <c r="B317" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C317" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="C317" s="20" t="s">
-        <v>404</v>
-      </c>
       <c r="D317" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -12903,23 +13511,23 @@
         <v>25</v>
       </c>
       <c r="C318" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="D318" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="D318" s="20" t="s">
-        <v>406</v>
-      </c>
       <c r="E318" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F318" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G318" s="20"/>
       <c r="H318" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="I318" s="20" t="s">
         <v>447</v>
-      </c>
-      <c r="I318" s="20" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15">
@@ -12928,16 +13536,16 @@
         <v>25</v>
       </c>
       <c r="C319" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D319" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="D319" s="20" t="s">
-        <v>408</v>
-      </c>
       <c r="E319" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F319" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G319" s="20"/>
       <c r="H319" s="20">
@@ -12950,13 +13558,13 @@
         <v>0</v>
       </c>
       <c r="B320" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C320" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="C320" s="20" t="s">
-        <v>410</v>
-      </c>
       <c r="D320" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -12970,16 +13578,16 @@
         <v>25</v>
       </c>
       <c r="C321" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D321" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="D321" s="20" t="s">
-        <v>412</v>
-      </c>
       <c r="E321" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F321" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G321" s="20"/>
       <c r="H321" s="20"/>
@@ -12991,16 +13599,16 @@
         <v>25</v>
       </c>
       <c r="C322" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="D322" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="D322" s="20" t="s">
-        <v>414</v>
-      </c>
       <c r="E322" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F322" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G322" s="20"/>
       <c r="H322" s="20"/>
@@ -13012,16 +13620,16 @@
         <v>25</v>
       </c>
       <c r="C323" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D323" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E323" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F323" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G323" s="20"/>
       <c r="H323" s="20" t="b">
@@ -13034,13 +13642,13 @@
         <v>0</v>
       </c>
       <c r="B324" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C324" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="C324" s="20" t="s">
-        <v>416</v>
-      </c>
       <c r="D324" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -13053,13 +13661,13 @@
         <v>0</v>
       </c>
       <c r="B325" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C325" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="C325" s="20" t="s">
-        <v>418</v>
-      </c>
       <c r="D325" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -13073,23 +13681,23 @@
         <v>25</v>
       </c>
       <c r="C326" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D326" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="D326" s="20" t="s">
-        <v>420</v>
-      </c>
       <c r="E326" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F326" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G326" s="20"/>
       <c r="H326" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="I326" s="20" t="s">
         <v>449</v>
-      </c>
-      <c r="I326" s="20" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="15">
@@ -13098,23 +13706,23 @@
         <v>25</v>
       </c>
       <c r="C327" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="D327" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="D327" s="20" t="s">
-        <v>422</v>
-      </c>
       <c r="E327" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F327" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G327" s="20"/>
       <c r="H327" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="I327" s="20" t="s">
         <v>451</v>
-      </c>
-      <c r="I327" s="20" t="s">
-        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -13127,82 +13735,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="D1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B5" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="D2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="D3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>464</v>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/projects/example_project.xlsx
+++ b/projects/example_project.xlsx
@@ -4767,7 +4767,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4948,7 +4948,7 @@
         <v>501</v>
       </c>
       <c r="B16" s="28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>516</v>

--- a/projects/example_project.xlsx
+++ b/projects/example_project.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$I$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Y$15</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4736,17 +4736,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4766,21 +4766,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="27"/>
       <c r="C1" s="22"/>
@@ -4789,7 +4789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>452</v>
       </c>
@@ -4798,7 +4798,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>453</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>488</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>512</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="56">
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>514</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>466</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>467</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>491</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="13" customFormat="1">
+    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
@@ -4902,7 +4902,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>500</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>501</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>502</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>504</v>
       </c>
@@ -4976,10 +4976,10 @@
         <v>454</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="25"/>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>483</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>478</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>476</v>
       </c>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="D28" s="12"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>35</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28">
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>40</v>
       </c>
@@ -5138,25 +5138,25 @@
       <selection pane="bottomLeft" activeCell="J1" sqref="J1:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="5"/>
-    <col min="10" max="17" width="11.5" style="1"/>
-    <col min="18" max="18" width="46.1640625" style="1" customWidth="1"/>
-    <col min="19" max="21" width="11.5" style="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="17" width="11.44140625" style="1"/>
+    <col min="18" max="18" width="46.109375" style="1" customWidth="1"/>
+    <col min="19" max="21" width="11.44140625" style="1"/>
     <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.5" style="1"/>
+    <col min="23" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18">
+    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5190,7 +5190,7 @@
       <c r="W1" s="33"/>
       <c r="X1" s="33"/>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5203,7 +5203,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:24" s="16" customFormat="1" ht="45">
+    <row r="3" spans="1:24" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5309,7 +5309,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -5368,7 +5368,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
@@ -5410,7 +5410,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -5440,7 +5440,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -5470,7 +5470,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5500,7 +5500,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -5530,7 +5530,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -5560,7 +5560,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -5590,7 +5590,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -5620,7 +5620,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:24" customFormat="1">
+    <row r="16" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:16" customFormat="1">
+    <row r="17" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:16" customFormat="1">
+    <row r="18" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:16" customFormat="1">
+    <row r="19" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" customFormat="1">
+    <row r="20" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" customFormat="1">
+    <row r="21" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -5773,7 +5773,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>26</v>
@@ -5813,7 +5813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="b">
         <v>1</v>
       </c>
@@ -5831,7 +5831,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>26</v>
@@ -5871,7 +5871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>25</v>
@@ -5893,7 +5893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>25</v>
@@ -5918,7 +5918,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="b">
         <v>1</v>
       </c>
@@ -5936,7 +5936,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>26</v>
@@ -5976,7 +5976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>25</v>
@@ -5998,7 +5998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31" t="s">
         <v>25</v>
@@ -6047,21 +6047,21 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="5"/>
-    <col min="10" max="16384" width="11.5" style="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -6074,7 +6074,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="15">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>493</v>
       </c>
@@ -6093,7 +6093,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="15">
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -6107,7 +6107,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>507</v>
       </c>
@@ -6127,7 +6127,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>510</v>
       </c>
@@ -6148,7 +6148,7 @@
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -6158,7 +6158,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -6169,7 +6169,7 @@
       <c r="H7"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6179,7 +6179,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="15"/>
@@ -6189,7 +6189,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6199,7 +6199,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6209,7 +6209,7 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6219,7 +6219,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6229,7 +6229,7 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -6239,7 +6239,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6249,15 +6249,15 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:9" customFormat="1"/>
-    <row r="17" spans="1:9" customFormat="1"/>
-    <row r="18" spans="1:9" customFormat="1">
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:9" customFormat="1"/>
-    <row r="20" spans="1:9" customFormat="1"/>
-    <row r="21" spans="1:9" customFormat="1"/>
-    <row r="22" spans="1:9">
+    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -6267,7 +6267,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -6277,7 +6277,7 @@
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -6287,7 +6287,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -6297,7 +6297,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -6307,7 +6307,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -6318,7 +6318,7 @@
       <c r="H27"/>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -6328,7 +6328,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -6338,7 +6338,7 @@
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -6348,7 +6348,7 @@
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -6378,19 +6378,19 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -6409,7 +6409,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>25</v>
@@ -6430,7 +6430,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>25</v>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>25</v>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>25</v>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>25</v>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>25</v>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>25</v>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>25</v>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -6633,7 +6633,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>25</v>
@@ -6654,7 +6654,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>25</v>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>25</v>
@@ -6723,7 +6723,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>25</v>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -6857,7 +6857,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>25</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>25</v>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>25</v>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -7083,7 +7083,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>25</v>
@@ -7104,7 +7104,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -7127,7 +7127,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>25</v>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>25</v>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -7328,7 +7328,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>25</v>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>25</v>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -7512,7 +7512,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -7531,7 +7531,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -7552,7 +7552,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -7667,7 +7667,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -7690,7 +7690,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -7755,7 +7755,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -7776,7 +7776,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
@@ -7801,7 +7801,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -7824,7 +7824,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>25</v>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -7939,7 +7939,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -8004,7 +8004,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -8025,7 +8025,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -8048,7 +8048,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -8073,7 +8073,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>25</v>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>25</v>
@@ -8234,7 +8234,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>25</v>
@@ -8257,7 +8257,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>25</v>
@@ -8280,7 +8280,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -8322,7 +8322,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -8437,7 +8437,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -8483,7 +8483,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>25</v>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -8552,7 +8552,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -8571,7 +8571,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -8596,7 +8596,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -8615,7 +8615,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -8636,7 +8636,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -8661,7 +8661,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -8680,7 +8680,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -8728,7 +8728,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -8772,7 +8772,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -8816,7 +8816,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>25</v>
@@ -8839,7 +8839,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -8862,7 +8862,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>25</v>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -8973,7 +8973,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -9019,7 +9019,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -9061,7 +9061,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>25</v>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -9107,7 +9107,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>25</v>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>25</v>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -9176,7 +9176,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>25</v>
@@ -9199,7 +9199,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -9218,7 +9218,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -9243,7 +9243,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>25</v>
@@ -9266,7 +9266,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>25</v>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -9312,7 +9312,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>25</v>
@@ -9335,7 +9335,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>25</v>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>25</v>
@@ -9404,7 +9404,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>25</v>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -9446,7 +9446,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>25</v>
@@ -9471,7 +9471,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>25</v>
@@ -9492,7 +9492,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>25</v>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>25</v>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>25</v>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>25</v>
@@ -9584,7 +9584,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>25</v>
@@ -9607,7 +9607,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>25</v>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>25</v>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>25</v>
@@ -9676,7 +9676,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>25</v>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>25</v>
@@ -9722,7 +9722,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>25</v>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>25</v>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -9787,7 +9787,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>25</v>
@@ -9810,7 +9810,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -9829,7 +9829,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>25</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>25</v>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -9894,7 +9894,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>25</v>
@@ -9919,7 +9919,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>25</v>
@@ -9942,7 +9942,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>25</v>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>25</v>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>25</v>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>25</v>
@@ -10034,7 +10034,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>25</v>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>25</v>
@@ -10080,7 +10080,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>25</v>
@@ -10103,7 +10103,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>25</v>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -10145,7 +10145,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>25</v>
@@ -10170,7 +10170,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>25</v>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>25</v>
@@ -10216,7 +10216,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>25</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>25</v>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>25</v>
@@ -10285,7 +10285,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>25</v>
@@ -10308,7 +10308,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>25</v>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>25</v>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>25</v>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -10396,7 +10396,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>25</v>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>25</v>
@@ -10442,7 +10442,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>25</v>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>25</v>
@@ -10488,7 +10488,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -10507,7 +10507,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>25</v>
@@ -10530,7 +10530,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>25</v>
@@ -10553,7 +10553,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>25</v>
@@ -10576,7 +10576,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>25</v>
@@ -10599,7 +10599,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -10618,7 +10618,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>25</v>
@@ -10639,7 +10639,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>25</v>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -10681,7 +10681,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>25</v>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>25</v>
@@ -10729,7 +10729,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>25</v>
@@ -10750,7 +10750,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>25</v>
@@ -10775,7 +10775,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>25</v>
@@ -10800,7 +10800,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -10819,7 +10819,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>25</v>
@@ -10844,7 +10844,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>25</v>
@@ -10867,7 +10867,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>25</v>
@@ -10890,7 +10890,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>25</v>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>25</v>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>25</v>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>25</v>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>25</v>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>25</v>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -11047,7 +11047,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>25</v>
@@ -11072,7 +11072,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>25</v>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>25</v>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>25</v>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>25</v>
@@ -11164,7 +11164,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>25</v>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>25</v>
@@ -11210,7 +11210,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>25</v>
@@ -11233,7 +11233,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>25</v>
@@ -11256,7 +11256,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -11275,7 +11275,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>25</v>
@@ -11296,7 +11296,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>25</v>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>25</v>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>25</v>
@@ -11365,7 +11365,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>25</v>
@@ -11388,7 +11388,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>25</v>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>25</v>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>25</v>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>25</v>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>25</v>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>25</v>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>25</v>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>25</v>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>25</v>
@@ -11595,7 +11595,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>25</v>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>25</v>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -11660,7 +11660,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>25</v>
@@ -11681,7 +11681,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>25</v>
@@ -11704,7 +11704,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>25</v>
@@ -11727,7 +11727,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>25</v>
@@ -11750,7 +11750,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>25</v>
@@ -11773,7 +11773,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>25</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>25</v>
@@ -11819,7 +11819,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>25</v>
@@ -11842,7 +11842,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>25</v>
@@ -11865,7 +11865,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>25</v>
@@ -11888,7 +11888,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>25</v>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>25</v>
@@ -11934,7 +11934,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>25</v>
@@ -11957,7 +11957,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>25</v>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>25</v>
@@ -12003,7 +12003,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>25</v>
@@ -12026,7 +12026,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -12045,7 +12045,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>25</v>
@@ -12070,7 +12070,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>25</v>
@@ -12093,7 +12093,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>25</v>
@@ -12116,7 +12116,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>25</v>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>25</v>
@@ -12162,7 +12162,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -12181,7 +12181,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>25</v>
@@ -12206,7 +12206,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>25</v>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -12248,7 +12248,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -12267,7 +12267,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -12286,7 +12286,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>25</v>
@@ -12307,7 +12307,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>25</v>
@@ -12330,7 +12330,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>25</v>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>25</v>
@@ -12376,7 +12376,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>25</v>
@@ -12399,7 +12399,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>25</v>
@@ -12422,7 +12422,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>25</v>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>25</v>
@@ -12468,7 +12468,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>25</v>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>25</v>
@@ -12514,7 +12514,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>25</v>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -12556,7 +12556,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>25</v>
@@ -12579,7 +12579,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -12598,7 +12598,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>25</v>
@@ -12623,7 +12623,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>25</v>
@@ -12646,7 +12646,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>25</v>
@@ -12669,7 +12669,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>25</v>
@@ -12692,7 +12692,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>25</v>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>25</v>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>25</v>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>25</v>
@@ -12784,7 +12784,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>25</v>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>25</v>
@@ -12830,7 +12830,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>25</v>
@@ -12853,7 +12853,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -12872,7 +12872,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>25</v>
@@ -12895,7 +12895,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -12914,7 +12914,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>25</v>
@@ -12935,7 +12935,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -12954,7 +12954,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>25</v>
@@ -12975,7 +12975,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -12994,7 +12994,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>25</v>
@@ -13015,7 +13015,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -13034,7 +13034,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>25</v>
@@ -13057,7 +13057,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -13076,7 +13076,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>25</v>
@@ -13101,7 +13101,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>25</v>
@@ -13124,7 +13124,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>25</v>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>25</v>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>25</v>
@@ -13193,7 +13193,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>25</v>
@@ -13216,7 +13216,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>25</v>
@@ -13239,7 +13239,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>25</v>
@@ -13262,7 +13262,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>25</v>
@@ -13285,7 +13285,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -13304,7 +13304,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>25</v>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>25</v>
@@ -13350,7 +13350,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>25</v>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>25</v>
@@ -13396,7 +13396,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -13415,7 +13415,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>25</v>
@@ -13438,7 +13438,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>25</v>
@@ -13461,7 +13461,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>25</v>
@@ -13486,7 +13486,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -13505,7 +13505,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>25</v>
@@ -13530,7 +13530,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>25</v>
@@ -13553,7 +13553,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -13572,7 +13572,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>25</v>
@@ -13593,7 +13593,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>25</v>
@@ -13614,7 +13614,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>25</v>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -13656,7 +13656,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -13675,7 +13675,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>25</v>
@@ -13700,7 +13700,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>25</v>
@@ -13743,13 +13743,13 @@
       <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>465</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>455</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>456</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>463</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>457</v>
       </c>
@@ -13804,17 +13804,17 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>484</v>
       </c>
